--- a/scraperCVPR/text.xlsx
+++ b/scraperCVPR/text.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C226"/>
+  <dimension ref="A1:E239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,10 +441,20 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>project_page</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>url</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>keywords</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>authors</t>
         </is>
@@ -458,10 +468,16 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>multimodal</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>multimodal</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
         <is>
           <t>Shengbang Tong, Zhuang Liu, Yuexiang Zhai, Yi Ma, Yann LeCun, Saining Xie</t>
         </is>
@@ -470,3808 +486,5839 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t xml:space="preserve">NeRF Analogies - Example-Based Visual Attribute Transfer for NeRFs </t>
+          <t xml:space="preserve">Hierarchical Patch Diffusion Models for High-Resolution Video Generation </t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>nerf</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Michael Fischer, Zhengqin Li, Thu Nguyen-Phuoc, Aljaž Božič, Zhao Dong, Carl Marshall, Tobias Ritschel</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>video generation</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Ivan Skorokhodov, Willi Menapace, Aliaksandr Siarohin, Sergey Tulyakov</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Towards a Simultaneous and Granular Identity-Expression Control in Personalized Face Generation </t>
+          <t xml:space="preserve">LucidDreamer: Towards High-Fidelity Text-to-3D Generation via Interval Score Matching </t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>personalized</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Renshuai Liu, Bowen Ma, Wei Zhang, Zhipeng Hu, Changjie Fan, Tangjie Lv, Yu Ding, Xuan Cheng</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3d generation</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Yixun Liang, Xin Yang, Jiantao Lin, Haodong LI, Xiaogang Xu, Ying-Cong Chen</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t xml:space="preserve">HUNTER: Unsupervised Human-centric 3D Detection via Transferring Knowledge from Synthetic Instances to Real Scenes </t>
+          <t xml:space="preserve">Towards a Simultaneous and Granular Identity-Expression Control in Personalized Face Generation </t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>human-centric</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Yichen Yao, Zimo Jiang, YUJING SUN, Zhencai Zhu, Xinge Zhu, Runnan Chen, Yuexin Ma</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>personalized</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Renshuai Liu, Bowen Ma, Wei Zhang, Zhipeng Hu, Changjie Fan, Tangjie Lv, Yu Ding, Xuan Cheng</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t xml:space="preserve">GoodSAM: Bridging Domain and Capacity Gaps via Segment Anything Model for Distortion-aware Panoramic Semantic Segmentation </t>
+          <t xml:space="preserve">PAIR Diffusion: A Comprehensive Multimodal Object-Level Image Editor </t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pano</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>WEIMING ZHANG, Yexin Liu, Xu Zheng, Addison, Lin Wang</t>
+          <t>https://vidit98.github.io/publication/conference-paper/pair_diff.html</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>multimodal</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Vidit Goel, Elia Peruzzo, Yifan Jiang, Dejia Xu, Xingqian Xu, Nicu Sebe, Trevor Darrell, Zhangyang Wang, Humphrey Shi</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t xml:space="preserve">HiFi4G: High-Fidelity Human Performance Rendering via Compact Gaussian Splatting </t>
+          <t xml:space="preserve">Source-Free Domain Adaptation with Frozen Multimodal Foundation Model </t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>gaussian splatting</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Yuheng Jiang, Zhehao Shen, Penghao Wang, Zhuo Su, Yu Hong, Yingliang Zhang, Jingyi Yu, Lan Xu</t>
+          <t>https://www.taulab.cc/proj/sfda/cvpr24/difo/index.html</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>multimodal</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Song Tang, Wenxin Su, Mao Ye, Xiatian Zhu</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Multimodal Prompt Perceiver: Empower Adaptiveness, Generalizability and Fidelity for All-in-One Image Restoration </t>
+          <t xml:space="preserve">DynVideo-E: Harnessing Dynamic NeRF for Large-Scale Motion- and View-Change Human-Centric Video Editing </t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>multimodal</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Yuang Ai, Huaibo Huang, Xiaoqiang Zhou, Jiexiang Wang, Ran He</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>nerf,human-centric</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Jia-Wei Liu, Yan-Pei Cao, Jay Zhangjie Wu, Weijia Mao, Yuchao Gu, Rui Zhao, Jussi Keppo, Ying Shan, Mike Zheng Shou</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t xml:space="preserve">HumanGaussian: Text-Driven 3D Human Generation with Gaussian Splatting </t>
+          <t xml:space="preserve">ConCon-Chi: Concept-Context Chimera Benchmark for Personalized Vision-Language Tasks </t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>gaussian splatting</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Xian Liu, Xiaohang Zhan, Jiaxiang Tang, Ying Shan, Gang Zeng, Dahua Lin, Xihui Liu, Ziwei Liu</t>
+          <t>https://github.com/hsp-iit/concon-chi_benchmark</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>personalized</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Andrea Rosasco, Stefano Berti, Giulia Pasquale, Damiano Malafronte, Shogo Sato, Hiroyuki Segawa, Tetsugo Inada, Lorenzo Natale</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t xml:space="preserve">DIEM: Decomposition-Integration Enhancing Multimodal Insights </t>
+          <t xml:space="preserve">Flexible Biometrics Recognition: Bridging the Multimodality Gap through Attention Alignment and Prompt Tuning </t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>multimodal</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Xinyi Jiang, Guoming Wang, Junhao Guo, Juncheng Li, Wenqiao Zhang, Rongxing Lu, Siliang Tang</t>
+          <t>https://github.com/MIS-DevWorks/FBR</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>multimodal</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Leslie Ching Ow Tiong, Dick Sigmund, Chen-Hui Chan, Andrew Beng Jin Teoh</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Interactive3D: Create What You Want by Interactive 3D Generation </t>
+          <t xml:space="preserve">Human Gaussian Splatting: Real-time Rendering of Animatable Avatars </t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>3d generation</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Shaocong Dong, Lihe Ding, Zhanpeng Huang, Zibin Wang, Tianfan Xue, Dan Xu</t>
+          <t>https://perezpellitero.github.io/projects/hugs/index.html</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>gaussian splatting</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Arthur Moreau, Jifei Song, Helisa Dhamo, Richard Shaw, Yiren Zhou, Eduardo Pérez-Pellitero</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t xml:space="preserve">PIA: Your Personalized Image Animator via Plug-and-Play Modules in Text-to-Image Models </t>
+          <t xml:space="preserve">Multimodal Sense-Informed Forecasting of 3D Human Motions </t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>personalized</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Yiming Zhang, Zhening Xing, Yanhong Zeng, Youqing Fang, Kai Chen</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>multimodal</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Zhenyu Lou, Qiongjie Cui, Haofan Wang, Xu Tang, Hong Zhou</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t xml:space="preserve">NeRFCodec: Neural Feature Compression Meets Neural Radiance Fields for Memory-Efficient Scene Representation </t>
+          <t xml:space="preserve">When StyleGAN Meets Stable Diffusion: a W+ Adapter for Personalized Image Generation </t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>nerf</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Sicheng Li, Hao Li, Yiyi Liao, Lu Yu</t>
+          <t>https://github.com/csxmli2016/w-plus-adapter</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>personalized</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Xiaoming Li, Xinyu Hou, Chen Change Loy</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t xml:space="preserve">HybridNeRF: Efficient Neural Rendering via Adaptive Volumetric Surfaces </t>
+          <t xml:space="preserve">NeRF Analogies: Example-Based Visual Attribute Transfer for NeRFs </t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
+        <is>
           <t>nerf</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Haithem Turki, Vasu Agrawal, Samuel Rota Bulò, Lorenzo Porzi, Peter Kontschieder, Deva Ramanan, Michael Zollhoefer, Christian Richardt</t>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Michael Fischer, Zhengqin Li, Thu Nguyen-Phuoc, Aljaž Božič, Zhao Dong, Carl Marshall, Tobias Ritschel</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t xml:space="preserve">Triplane Meets Gaussian Splatting: Fast and Generalizable Single-View 3D Reconstruction with Transformers </t>
+          <t xml:space="preserve">Text-to-3D Generation with Bidirectional Diffusion using both 2D and 3D priors </t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>gaussian splatting</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Zi-Xin Zou, Zhipeng Yu, Yuan-Chen Guo, Yangguang Li, Yan-Pei Cao, Ding Liang, Song-Hai Zhang</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3d generation</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Lihe Ding, Shaocong Dong, Zhanpeng Huang, Zibin Wang, Yiyuan Zhang, Kaixiong Gong, Dan Xu, Tianfan Xue</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t xml:space="preserve">ADFactory: An Effective Framework for Generalizing Optical Flow with NeRF </t>
+          <t xml:space="preserve">Taming Stable Diffusion for Text to 360 Panorama Image Generation </t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>nerf</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Han Ling, Quansen Sun, Yinghui Sun, Xian Xu, Xingfeng Li</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>pano</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Cheng Zhang, Qianyi Wu, Camilo Cruz Gambardella, Xiaoshui Huang, Dinh Phung, Wanli Ouyang, Jianfei Cai</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t xml:space="preserve">How Far Can We Compress Instant NGP-Based NeRF? </t>
+          <t xml:space="preserve">BIVDiff: A Training-Free Framework for General-Purpose Video Synthesis via Bridging Image and Video Diffusion Models </t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>nerf</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Yihang Chen, Qianyi Wu, Mehrtash Harandi, Jianfei Cai</t>
+          <t>https://github.com/MCG-NJU/BIVDiff</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>video synthesis</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Fengyuan Shi, Jiaxi Gu, Hang Xu, Songcen Xu, Wei Zhang, Limin Wang</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t xml:space="preserve">PFStorer: Personalized Face Restoration and Super-Resolution </t>
+          <t xml:space="preserve">Fairy: Fast Parallelized Instruction-Guided Video-to-Video Synthesis </t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>personalized</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Tuomas Varanka, Tapani Toivonen, Soumya Tripathy, Guoying Zhao, Erman Acar</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>video synthesis</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Bichen Wu, Ching-Yao Chuang, Xiaoyan Wang, Yichen Jia, Kapil Krishnakumar, Tong Xiao, Feng Liang, Licheng Yu, Peter Vajda</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t xml:space="preserve">LION: Empowering Multimodal Large Language Model with Dual-Level Visual Knowledge </t>
+          <t xml:space="preserve">3D Geometry-Aware Deformable Gaussian Splatting for Dynamic View Synthesis </t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>multimodal</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Gongwei Chen, Leyang Shen, Rui Shao, Xiang Deng, Liqiang Nie</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>gaussian splatting</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Zhicheng Lu, xiang guo, Le Hui, Tianrui Chen, Min Yang, Xiao Tang, feng zhu, Yuchao Dai</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t xml:space="preserve">SpecNeRF: Gaussian Directional Encoding for Specular Reflections </t>
+          <t xml:space="preserve">V?: Guided Visual Search as a Core Mechanism in Multimodal LLMs </t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>nerf</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Li Ma, Vasu Agrawal, Haithem Turki, Changil Kim, Chen Gao, Pedro V. Sander, Michael Zollhoefer, Christian Richardt</t>
+          <t>https://vstar-seal.github.io/</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>multimodal</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Penghao Wu, Saining Xie</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Make Pixels Dance: High-Dynamic Video Generation </t>
+          <t xml:space="preserve">PlatoNeRF: 3D Reconstruction in Plato's Cave via Single-View Two-Bounce Lidar </t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>video generation</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Yan Zeng, Guoqiang Wei, Jiani Zheng, Jiaxin Zou, Yang Wei, Yuchen Zhang, Hang Li</t>
+          <t>https://platonerf.github.io/</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>nerf</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Tzofi Klinghoffer, Xiaoyu Xiang, Siddharth Somasundaram, Yuchen Fan, Christian Richardt, Ramesh Raskar, Rakesh Ranjan</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t xml:space="preserve">MM-Narrator: Narrating Long-form Videos with Multimodal In-Context Learning </t>
+          <t xml:space="preserve">360+x: A Panoptic Multi-modal Scene Understanding Dataset </t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>multimodal</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Chaoyi Zhang, Kevin Lin, Zhengyuan Yang, Jianfeng Wang, Linjie Li, Chung-Ching Lin, Zicheng Liu, Lijuan Wang</t>
+          <t>https://x360dataset.github.io/</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>pano</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Hao Chen, Yuqi Hou, Chenyuan Qu, Irene Testini, Xiaohan Hong, Jianbo Jiao</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t xml:space="preserve">Task-aligned Part-aware Panoptic Segmentation through Joint Object-Part Representations </t>
+          <t xml:space="preserve">Unifying Correspondence Pose and NeRF for Generalized Pose-Free Novel View Synthesis </t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pano</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Daan de Geus, Gijs Dubbelman</t>
+          <t>https://ku-cvlab.github.io/CoPoNeRF/</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>nerf</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Sunghwan Hong, Jaewoo Jung, Heeseong Shin, Jiaolong Yang, Chong Luo, Seungryong Kim</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t xml:space="preserve">Multiagent Multitraversal Multimodal Self-Driving: Open MARS Dataset </t>
+          <t xml:space="preserve">How Far Can We Compress Instant-NGP-Based NeRF? </t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>multimodal</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>Yiming Li, Zhiheng Li, Nuo Chen, Moonjun Gong, Zonglin Lyu, Zehong Wang, Peili Jiang, Chen Feng</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>nerf</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Yihang Chen, Qianyi Wu, Mehrtash Harandi, Jianfei Cai</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t xml:space="preserve">DaReNeRF: Direction-aware Representation for Dynamic Scenes </t>
+          <t xml:space="preserve">AlignMiF: Geometry-Aligned Multimodal Implicit Field for LiDAR-Camera Joint Synthesis </t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>nerf</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>Ange Lou, Benjamin Planche, Zhongpai Gao, Yamin Li, Tianyu Luan, Hao Ding, Terrence Chen, Jack Noble, Ziyan Wu</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>multimodal</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Tao Tang, Guangrun Wang, Yixing Lao, Peng Chen, Jie Liu, Liang Lin, Kaicheng Yu, Xiaodan Liang</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t xml:space="preserve">Diversified and Personalized Multi-rater Medical Image Segmentation </t>
+          <t xml:space="preserve">L0-Sampler: An L0 Model Guided Volume Sampling for NeRF </t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>personalized</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>Yicheng Wu, Xiangde Luo, Zhe Xu, Xiaoqing Guo, Lie Ju, Zongyuan Ge, Wenjun Liao, Jianfei Cai</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>nerf</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Liangchen Li, Juyong Zhang</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t xml:space="preserve">SportsSloMo: A New Benchmark and Baselines for Human-centric Video Frame Interpolation </t>
+          <t xml:space="preserve">Sieve: Multimodal Dataset Pruning using Image Captioning Models </t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>human-centric</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>Jiaben Chen, Huaizu Jiang</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>multimodal</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Anas Mahmoud, Mostafa Elhoushi, Amro Abbas, Yu Yang, Newsha Ardalani, Hugh Leather, Ari Morcos</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cinematic Behavior Transfer via NeRF-based Differentiable Filming </t>
+          <t xml:space="preserve">TRINS: Towards Multimodal Language Models that Can Read </t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>nerf</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>Xuekun Jiang, Anyi Rao, Jingbo Wang, Dahua Lin, Bo Dai</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>multimodal</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Ruiyi Zhang, Yanzhe Zhang, Jian Chen, Yufan Zhou, Jiuxiang Gu, Changyou Chen, Tong Sun</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t xml:space="preserve">Generative Multimodal Models are In-Context Learners </t>
+          <t xml:space="preserve">Decentralized Directed Collaboration for Personalized Federated Learning </t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>multimodal</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>Quan Sun, Yufeng Cui, Xiaosong Zhang, Fan Zhang, Qiying Yu, Yueze Wang, Yongming Rao, Jingjing Liu, Tiejun Huang, Xinlong Wang</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>personalized</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Yingqi Liu, Yifan Shi, Qinglun Li, Baoyuan Wu, Xueqian Wang, Li Shen</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t xml:space="preserve">InstantBooth: Personalized Text-to-Image Generation without Test-Time Finetuning </t>
+          <t xml:space="preserve">Multimodal Prompt Perceiver: Empower Adaptiveness Generalizability and Fidelity for All-in-One Image Restoration </t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>personalized</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>Jing Shi, Wei Xiong, Zhe Lin, HyunJoon Jung</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>multimodal</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Yuang Ai, Huaibo Huang, Xiaoqiang Zhou, Jiexiang Wang, Ran He</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t xml:space="preserve">PaReNeRF: Toward Fast Large-scale Dynamic NeRF with Patch-based Reference </t>
+          <t xml:space="preserve">Unified-IO 2: Scaling Autoregressive Multimodal Models with Vision Language Audio and Action </t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>nerf</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Xiao Tang, Min Yang, Penghui Sun, Hui Li, Yuchao Dai, feng zhu, Hojae Lee</t>
+          <t>https://unified-io-2.allenai.org/</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>multimodal</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Jiasen Lu, Christopher Clark, Sangho Lee, Zichen Zhang, Savya Khosla, Ryan Marten, Derek Hoiem, Aniruddha Kembhavi</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t xml:space="preserve">Summarize the Past to Predict the Future: Natural Language Descriptions of Context Boost Multimodal Object Interaction Anticipation </t>
+          <t xml:space="preserve">MV-Adapter: Multimodal Video Transfer Learning for Video Text Retrieval </t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>multimodal</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>Razvan Pasca, Alexey Gavryushin, Muhammad Hamza, Yen-Ling Kuo, Kaichun Mo, Luc Van Gool, Otmar Hilliges, Xi Wang</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>multimodal</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>bowen zhang, Xiaojie Jin, Weibo Gong, Kai Xu, Xueqing Deng, Peng Wang, Zhao Zhang, Xiaohui Shen, Jiashi Feng</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t xml:space="preserve">Correlation-Decoupled Knowledge Distillation for Multimodal Sentiment Analysis with Incomplete Modalities </t>
+          <t xml:space="preserve">OmniVec2 - A Novel Transformer based Network for Large Scale Multimodal and Multitask Learning </t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>multimodal</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>Mingcheng Li, Dingkang Yang, Xiao Zhao, Shuaibing Wang, Yan Wang, Kun Yang, Mingyang Sun, Dongliang Kou, Qian, Lihua Zhang</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>multimodal</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Siddharth Srivastava, Gaurav Sharma</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t xml:space="preserve">TextNeRF: A Novel Scene-Text Image Synthesis Method based on Neural Radiance Fields </t>
+          <t xml:space="preserve">Semantics Distortion and Style Matter: Towards Source-free UDA for Panoramic Segmentation </t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>nerf</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Jialei Cui, Jianwei Du, Wenzhuo Liu, Zhouhui Lian</t>
+          <t>https://vlislab22.github.io/360SFUDA/</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>pano</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Xu Zheng, Pengyuan Zhou, ATHANASIOS, Addison, Lin Wang</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t xml:space="preserve">CAD: Photorealistic 3D Generation via Adversarial Distillation </t>
+          <t xml:space="preserve">GlitchBench: Can Large Multimodal Models Detect Video Game Glitches? </t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>3d generation</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>Ziyu Wan, Despoina Paschalidou, Ian Huang, Hongyu Liu, Bokui Shen, Xiaoyu Xiang, Jing Liao, Leonidas Guibas</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>multimodal</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Mohammad Reza Taesiri, Tianjun Feng, Cor-Paul Bezemer, Anh Nguyen</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t xml:space="preserve">VCoder: Versatile Vision Encoders for Multimodal Large Language Models </t>
+          <t xml:space="preserve">CoGS: Controllable Gaussian Splatting </t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>multimodal</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Jitesh Jain, Jianwei Yang, Humphrey Shi</t>
+          <t>https://cogs2024.github.io</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>gaussian splatting</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Heng Yu, Joel Julin, Zoltán Á. Milacski, Koichiro Niinuma, László A. Jeni</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t xml:space="preserve">Gaussian Splatting SLAM </t>
+          <t xml:space="preserve">DIEM: Decomposition-Integration Enhancing Multimodal Insights </t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>gaussian splatting</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>Hidenobu Matsuki, Riku Murai, Paul Kelly, Andrew J. Davison</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>multimodal</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Xinyi Jiang, Guoming Wang, Junhao Guo, Juncheng Li, Wenqiao Zhang, Rongxing Lu, Siliang Tang</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t xml:space="preserve">360DVD: Controllable Panorama Video Generation with 360-Degree Video Diffusion Model </t>
+          <t xml:space="preserve">Weakly Misalignment-free Adaptive Feature Alignment for UAVs-based Multimodal Object Detection </t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>video generation,pano</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>Qian Wang, Weiqi Li, Chong Mou, Xinhua Cheng, Jian Zhang</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>multimodal</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Chen Chen, Jiahao Qi, Xingyue Liu, Kangcheng Bin, Ruigang Fu, Xikun Hu, Ping Zhong</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hierarchical Spatio-temporal Decoupling for Text-to-Video Generation </t>
+          <t xml:space="preserve">PrPSeg: Universal Proposition Learning for Panoramic Renal Pathology Segmentation </t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>video generation</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>Zhiwu Qing, Shiwei Zhang, Jiayu Wang, Xiang Wang, Yujie Wei, Yingya Zhang, Changxin Gao, Nong Sang</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>pano</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Ruining Deng, Quan Liu, Can Cui, Tianyuan Yao, Jialin Yue, Juming Xiong, Lining yu, Yifei Wu, Mengmeng Yin, Yu Wang, Shilin Zhao, Yucheng Tang, Haichun Yang, Yuankai Huo</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sherpa3D: Boosting High-Fidelity Text-to-3D Generation via Coarse 3D Prior </t>
+          <t xml:space="preserve">MMMU: A Massive Multi-discipline Multimodal Understanding and Reasoning Benchmark for Expert AGI </t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>3d generation</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Fangfu Liu, Diankun Wu, Yi Wei, Yongming Rao, Yueqi Duan</t>
+          <t>https://mmmu-benchmark.github.io/</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>multimodal</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Xiang Yue, Yuansheng Ni, Kai Zhang, Tianyu Zheng, Ruoqi Liu, Ge Zhang, Samuel Stevens, Dongfu Jiang, Weiming Ren, Yuxuan Sun, Cong Wei, Botao Yu, Ruibin Yuan, Renliang Sun, Ming Yin, Boyuan Zheng, Zhenzhu Yang, Yibo Liu, Wenhao Huang, Huan Sun, Yu Su, Wenhu Chen</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t xml:space="preserve">Flexible Biometrics Recognition: Bridging the Multimodality Gap through Attention, Alignment and Prompt Tuning </t>
+          <t xml:space="preserve">AVID: Any-Length Video Inpainting with Diffusion Model </t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>multimodal</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Leslie Ching Ow Tiong, Dick Sigmund, Chen-Hui Chan, Andrew Beng Jin Teoh</t>
+          <t>https://zhang-zx.github.io/AVID/</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>inpainting</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Zhixing Zhang, Bichen Wu, Xiaoyan Wang, Yaqiao Luo, Luxin Zhang, Yinan Zhao, Peter Vajda, Dimitris N. Metaxas, Licheng Yu</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t xml:space="preserve">Omni-SMoLA: Boosting Generalist Multimodal Models with Soft Mixture of Low-rank Experts </t>
+          <t xml:space="preserve">JeDi: Joint-Image Diffusion Models for Finetuning-Free Personalized Text-to-Image Generation </t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>multimodal</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Jialin Wu, Xia Hu, Yaqing Wang, Bo Pang, Radu Soricut</t>
+          <t>https://research.nvidia.com/labs/dir/jedi/</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>personalized</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Yu Zeng, Vishal M. Patel, Haochen Wang, Xun Huang, Ting-Chun Wang, Ming-Yu Liu, Yogesh Balaji</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t xml:space="preserve">ULIP-2: Towards Scalable Multimodal Pre-training for 3D Understanding </t>
+          <t xml:space="preserve">TextNeRF: A Novel Scene-Text Image Synthesis Method based on Neural Radiance Fields </t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>multimodal</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Le Xue, Ning Yu, Shu Zhang, Artemis Panagopoulou, Junnan Li, Roberto Martín-Martín, Jiajun Wu, Caiming Xiong, Ran Xu, Juan Carlos Niebles, Silvio Savarese</t>
+          <t>https://github.com/cuijl-ai/TextNeRF</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>nerf,neural radiance</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Jialei Cui, Jianwei Du, Wenzhuo Liu, Zhouhui Lian</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t xml:space="preserve">SCINeRF: Neural Radiance Fields from a Snapshot Compressive Image </t>
+          <t xml:space="preserve">HUNTER: Unsupervised Human-centric 3D Detection via Transferring Knowledge from Synthetic Instances to Real Scenes </t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>nerf</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>Yunhao Li, Xiaodong Wang, Ping Wang, Xin Yuan, Peidong Liu</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>human-centric</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Yichen Yao, Zimo Jiang, YUJING SUN, Zhencai Zhu, Xinge Zhu, Runnan Chen, Yuexin Ma</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t xml:space="preserve">PIE-NeRF: Physics-based Interactive Elastodynamics with NeRF </t>
+          <t xml:space="preserve">GoodSAM: Bridging Domain and Capacity Gaps via Segment Anything Model for Distortion-aware Panoramic Semantic Segmentation </t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>nerf</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>Yutao Feng, Yintong Shang, Xuan Li, Tianjia Shao, Chenfanfu Jiang, Yin Yang</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>pano</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>WEIMING ZHANG, Yexin Liu, Xu Zheng, Addison, Lin Wang</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t xml:space="preserve">HUGS: Holistic Urban 3D Scene Understanding via Gaussian Splatting </t>
+          <t xml:space="preserve">HiFi4G: High-Fidelity Human Performance Rendering via Compact Gaussian Splatting </t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>https://nowheretrix.github.io/HiFi4G/</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
           <t>gaussian splatting</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>Hongyu Zhou, Jiahao Shao, Lu Xu, Dongfeng Bai, Weichao Qiu, Bingbing Liu, Yue Wang, Andreas Geiger, Yiyi Liao</t>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Yuheng Jiang, Zhehao Shen, Penghao Wang, Zhuo Su, Yu Hong, Yingliang Zhang, Jingyi Yu, Lan Xu</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t xml:space="preserve">DreamPropeller: Supercharge Text-to-3D Generation with Parallel Sampling </t>
+          <t xml:space="preserve">HumanGaussian: Text-Driven 3D Human Generation with Gaussian Splatting </t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>3d generation</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Linqi Zhou, Andy Shih, Chenlin Meng, Stefano Ermon</t>
+          <t>https://alvinliu0.github.io/projects/HumanGaussian</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>gaussian splatting</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Xian Liu, Xiaohang Zhan, Jiaxiang Tang, Ying Shan, Gang Zeng, Dahua Lin, Xihui Liu, Ziwei Liu</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t xml:space="preserve">PrPSeg: Universal Proposition Learning for Panoramic Renal Pathology Segmentation </t>
+          <t xml:space="preserve">Interactive3D: Create What You Want by Interactive 3D Generation </t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>pano</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>Ruining Deng, Quan Liu, Can Cui, Tianyuan Yao, Jialin Yue, Juming Xiong, Lining yu, Yifei Wu, Mengmeng Yin, Yu Wang, Shilin Zhao, Yucheng Tang, Haichun Yang, Yuankai Huo</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>3d generation</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Shaocong Dong, Lihe Ding, Zhanpeng Huang, Zibin Wang, Tianfan Xue, Dan Xu</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t xml:space="preserve">ConCon-Chi: Concept-Context Chimera Benchmark for Personalized Vision-Language Tasks </t>
+          <t xml:space="preserve">PIA: Your Personalized Image Animator via Plug-and-Play Modules in Text-to-Image Models </t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr">
+        <is>
           <t>personalized</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>Andrea Rosasco, Stefano Berti, Giulia Pasquale, Damiano Malafronte, Shogo Sato, Hiroyuki Segawa, Tetsugo Inada, Lorenzo Natale</t>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Yiming Zhang, Zhening Xing, Yanhong Zeng, Youqing Fang, Kai Chen</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t xml:space="preserve">BIVDiff: A Training-free Framework for General-Purpose Video Synthesis via Bridging Image and Video Diffusion Models </t>
+          <t xml:space="preserve">NeRFCodec: Neural Feature Compression Meets Neural Radiance Fields for Memory-Efficient Scene Representation </t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>video synthesis</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Fengyuan Shi, Jiaxi Gu, Hang Xu, Songcen Xu, Wei Zhang, Limin Wang</t>
+          <t>https://jasonlsc.github.io/nerfcodec_homepage/</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>nerf,neural radiance</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Sicheng Li, Hao Li, Yiyi Liao, Lu Yu</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t xml:space="preserve">SimDA: Simple Diffusion Adapter for Efficient Video Generation </t>
+          <t xml:space="preserve">HybridNeRF: Efficient Neural Rendering via Adaptive Volumetric Surfaces </t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>video generation</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Zhen Xing, Qi Dai, Han Hu, Zuxuan Wu, Yu-Gang Jiang</t>
+          <t>https://haithemturki.com/hybrid-nerf/</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>nerf</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Haithem Turki, Vasu Agrawal, Samuel Rota Bulò, Lorenzo Porzi, Peter Kontschieder, Deva Ramanan, Michael Zollhoefer, Christian Richardt</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t xml:space="preserve">A Recipe for Scaling up Text-to-Video Generation with Text-free Videos </t>
+          <t xml:space="preserve">Triplane Meets Gaussian Splatting: Fast and Generalizable Single-View 3D Reconstruction with Transformers </t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>video generation</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Xiang Wang, Shiwei Zhang, Hangjie Yuan, Zhiwu Qing, Biao Gong, Yingya Zhang, Yujun Shen, Changxin Gao, Nong Sang</t>
+          <t>https://zouzx.github.io/TriplaneGaussian/</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>gaussian splatting</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Zi-Xin Zou, Zhipeng Yu, Yuan-Chen Guo, Yangguang Li, Yan-Pei Cao, Ding Liang, Song-Hai Zhang</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t xml:space="preserve">Taming Stable Diffusion for Text to 360$^{\circ}$ Panorama Image Generation </t>
+          <t xml:space="preserve">ADFactory: An Effective Framework for Generalizing Optical Flow with NeRF </t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>pano</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>Cheng Zhang, Qianyi Wu, Camilo Cruz Gambardella, Xiaoshui Huang, Dinh Phung, Wanli Ouyang, Jianfei Cai</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>nerf</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Han Ling, Quansen Sun, Yinghui Sun, Xian Xu, Xingfeng Li</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t xml:space="preserve">Question Aware Vision Transformer for Multimodal Reasoning </t>
+          <t xml:space="preserve">PFStorer: Personalized Face Restoration and Super-Resolution </t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>multimodal</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>Roy Ganz, Yair Kittenplon, Aviad Aberdam, Elad Ben Avraham, Oren Nuriel, Shai Mazor, Ron Litman</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>personalized</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Tuomas Varanka, Tapani Toivonen, Soumya Tripathy, Guoying Zhao, Erman Acar</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t xml:space="preserve">RELI11D: A Comprehensive Multimodal Human Motion Dataset and Method </t>
+          <t xml:space="preserve">LION: Empowering Multimodal Large Language Model with Dual-Level Visual Knowledge </t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>multimodal</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>Ming Yan, Yan Zhang, Shuqiang Cai, Shuqi Fan, Xincheng Lin, Yudi Dai, Siqi Shen, Chenglu Wen, Lan Xu, Yuexin Ma, Cheng Wang</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>multimodal</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Gongwei Chen, Leyang Shen, Rui Shao, Xiang Deng, Liqiang Nie</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t xml:space="preserve">Learned Scanpaths Aid Blind Panoramic Video Quality Assessment </t>
+          <t xml:space="preserve">SpecNeRF: Gaussian Directional Encoding for Specular Reflections </t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>pano</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Kanglong FAN, Wen Wen, Mu Li, YIFAN PENG, Kede Ma</t>
+          <t>https://limacv.github.io/SpecNeRF_web/</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>nerf</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Li Ma, Vasu Agrawal, Haithem Turki, Changil Kim, Chen Gao, Pedro V. Sander, Michael Zollhoefer, Christian Richardt</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t xml:space="preserve">Depth-Aware Concealed Crop Detection in Dense Agricultural Scenes </t>
+          <t xml:space="preserve">Make Pixels Dance: High-Dynamic Video Generation </t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>cultural</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>Liqiong Wang, Jinyu Yang, Yanfu Zhang, Fangyi Wang, Feng Zheng</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>video generation</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Yan Zeng, Guoqiang Wei, Jiani Zheng, Jiaxin Zou, Yang Wei, Yuchen Zhang, Hang Li</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t xml:space="preserve">C3Net: Compound Conditioned ControlNet for Multimodal Content Generation </t>
+          <t xml:space="preserve">MM-Narrator: Narrating Long-form Videos with Multimodal In-Context Learning </t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>multimodal</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>Juntao Zhang, Yuehuai LIU, Yu-Wing Tai, Chi-Keung Tang</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>multimodal</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Chaoyi Zhang, Kevin Lin, Zhengyuan Yang, Jianfeng Wang, Linjie Li, Chung-Ching Lin, Zicheng Liu, Lijuan Wang</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t xml:space="preserve">FaceCom: Towards High-fidelity 3D Facial Shape Completion via Optimization and Inpainting Guidance </t>
+          <t xml:space="preserve">Task-aligned Part-aware Panoptic Segmentation through Joint Object-Part Representations </t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>inpainting</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Yinglong Li, Hongyu Wu, Wang, Qingzhao Qin, yijiao zhao, Yong Wang, Aimin Hao</t>
+          <t>https://www.tue-mps.org/tapps/</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>pano</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Daan de Geus, Gijs Dubbelman</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t xml:space="preserve">Data-Efficient Multimodal Fusion on a Single GPU </t>
+          <t xml:space="preserve">Multiagent Multitraversal Multimodal Self-Driving: Open MARS Dataset </t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>multimodal</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>Noël Vouitsis, Zhaoyan Liu, Satya Krishna Gorti, Valentin Villecroze, Jesse C. Cresswell, Guangwei Yu, Gabriel Loaiza-Ganem, Maksims Volkovs</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr"/>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>multimodal</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Yiming Li, Zhiheng Li, Nuo Chen, Moonjun Gong, Zonglin Lyu, Zehong Wang, Peili Jiang, Chen Feng</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t xml:space="preserve">FedSelect: Personalized Federated Learning with Customized Selection of Parameters for Fine-Tuning </t>
+          <t xml:space="preserve">DaReNeRF: Direction-aware Representation for Dynamic Scenes </t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>personalized</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>Rishub Tamirisa, Chulin Xie, Wenxuan Bao, Andy Zhou, Ron Arel, Aviv Shamsian</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>nerf</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Ange Lou, Benjamin Planche, Zhongpai Gao, Yamin Li, Tianyu Luan, Hao Ding, Terrence Chen, Jack Noble, Ziyan Wu</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t xml:space="preserve">FedAS: Bridging Inconsistency in Personalized Federated Learning </t>
+          <t xml:space="preserve">Diversified and Personalized Multi-rater Medical Image Segmentation </t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>https://github.com/ycwu1997/D-Persona</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
           <t>personalized</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>Xiyuan Yang, Wenke Huang, Mang Ye</t>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Yicheng Wu, Xiangde Luo, Zhe Xu, Xiaoqing Guo, Lie Ju, Zongyuan Ge, Wenjun Liao, Jianfei Cai</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t xml:space="preserve">LangSplat: 3D Language Gaussian Splatting </t>
+          <t xml:space="preserve">SportsSloMo: A New Benchmark and Baselines for Human-centric Video Frame Interpolation </t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>gaussian splatting</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>Minghan Qin, Wanhua Li, Jiawei ZHOU, Haoqian Wang, Hanspeter Pfister</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr"/>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>human-centric</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Jiaben Chen, Huaizu Jiang</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t xml:space="preserve">MMVP: A Multimodal MoCap Dataset with Vision and Pressure Sensors </t>
+          <t xml:space="preserve">Cinematic Behavior Transfer via NeRF-based Differentiable Filming </t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>multimodal</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>He Zhang, Shenghao Ren, Haolei Yuan, Jianhui Zhao, Fan Li, Shuangpeng Sun, Zhenghao Liang, Tao Yu, Qiu Shen, Xun Cao</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr"/>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>nerf</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Xuekun Jiang, Anyi Rao, Jingbo Wang, Dahua Lin, Bo Dai</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t xml:space="preserve">SIGNeRF: Scene Integrated Generation for Neural Radiance Fields </t>
+          <t xml:space="preserve">Generative Multimodal Models are In-Context Learners </t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>nerf</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>Jan-Niklas Dihlmann, Andreas Engelhardt, Hendrik Lensch</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr"/>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>multimodal</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Quan Sun, Yufeng Cui, Xiaosong Zhang, Fan Zhang, Qiying Yu, Yueze Wang, Yongming Rao, Jingjing Liu, Tiejun Huang, Xinlong Wang</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t xml:space="preserve">ViP-LLaVA: Making Large Multimodal Models Understand Arbitrary Visual Prompts </t>
+          <t xml:space="preserve">InstantBooth: Personalized Text-to-Image Generation without Test-Time Finetuning </t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>multimodal</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>Mu Cai, Haotian Liu, Siva Mustikovela, Gregory P. Meyer, Yuning Chai, Dennis Park, Yong Jae Lee</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr"/>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>personalized</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Jing Shi, Wei Xiong, Zhe Lin, HyunJoon Jung</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t xml:space="preserve">4D Gaussian Splatting for Real-Time Dynamic Scene Rendering </t>
+          <t xml:space="preserve">PaReNeRF: Toward Fast Large-scale Dynamic NeRF with Patch-based Reference </t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>gaussian splatting</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>Guanjun Wu, Taoran Yi, Jiemin Fang, Lingxi Xie, Xiaopeng Zhang, Wei Wei, Wenyu Liu, Qi Tian, Xinggang Wang</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr"/>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>nerf</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Xiao Tang, Min Yang, Penghui Sun, Hui Li, Yuchao Dai, feng zhu, Hojae Lee</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t xml:space="preserve">AVID: Any-Length Video Inpainting with Diffusion Model </t>
+          <t xml:space="preserve">Summarize the Past to Predict the Future: Natural Language Descriptions of Context Boost Multimodal Object Interaction Anticipation </t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>inpainting</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>Zhixing Zhang, Bichen Wu, Xiaoyan Wang, Yaqiao Luo, Luxin Zhang, Yinan Zhao, Peter Vajda, Dimitris N. Metaxas, Licheng Yu</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr"/>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>multimodal</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Razvan Pasca, Alexey Gavryushin, Muhammad Hamza, Yen-Ling Kuo, Kaichun Mo, Luc Van Gool, Otmar Hilliges, Xi Wang</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t xml:space="preserve">Binding Touch to Everything: Learning Unified Multimodal Tactile Representations </t>
+          <t xml:space="preserve">Correlation-Decoupled Knowledge Distillation for Multimodal Sentiment Analysis with Incomplete Modalities </t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>multimodal</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>Fengyu Yang, Chao Feng, Ziyang Chen, Hyoungseob Park, Daniel Wang, Yiming Dou, Ziyao Zeng, xien chen, Suchisrit Gangopadhyay, Andrew Owens, Alex Wong</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr"/>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>multimodal</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Mingcheng Li, Dingkang Yang, Xiao Zhao, Shuaibing Wang, Yan Wang, Kun Yang, Mingyang Sun, Dongliang Kou, Qian, Lihua Zhang</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hallucination Augmented Contrastive Learning for Multimodal Large Language Model </t>
+          <t xml:space="preserve">CAD: Photorealistic 3D Generation via Adversarial Distillation </t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>multimodal</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Chaoya Jiang, Haiyang Xu, Mengfan Dong, Jiaxing Chen, Wei Ye, Ming Yan, Qinghao Ye, Ji Zhang, Fei Huang, Shikun Zhang</t>
+          <t>http://raywzy.com/CAD/</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>3d generation</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Ziyu Wan, Despoina Paschalidou, Ian Huang, Hongyu Liu, Bokui Shen, Xiaoyu Xiang, Jing Liao, Leonidas Guibas</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t xml:space="preserve">GSNeRF: Generalizable Semantic Neural Radiance Fields with Enhanced 3D Scene Understanding </t>
+          <t xml:space="preserve">VCoder: Versatile Vision Encoders for Multimodal Large Language Models </t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>nerf</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Zi-Ting Chou, Sheng-Yu Huang, I-Jieh Liu, Yu-Chiang Frank Wang</t>
+          <t>https://praeclarumjj3.github.io/vcoder/</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>multimodal</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Jitesh Jain, Jianwei Yang, Humphrey Shi</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t xml:space="preserve">HHMR: Holistic Hand Mesh Recovery by Enhancing the Multimodal Controllability of Graph Diffusion Models </t>
+          <t xml:space="preserve">Gaussian Splatting SLAM </t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>multimodal</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Mengcheng Li, Hongwen Zhang, Yuxiang Zhang, Ruizhi Shao, Tao Yu, Yebin Liu</t>
+          <t>https://rmurai.co.uk/projects/GaussianSplattingSLAM/</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>gaussian splatting</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Hidenobu Matsuki, Riku Murai, Paul Kelly, Andrew J. Davison</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mip-Splatting: Alias-free 3D Gaussian Splatting </t>
+          <t xml:space="preserve">360DVD: Controllable Panorama Video Generation with 360-Degree Video Diffusion Model </t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>gaussian splatting</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>Zehao Yu, Anpei Chen, Binbin Huang, Torsten Sattler, Andreas Geiger</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr"/>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>video generation,pano</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Qian Wang, Weiqi Li, Chong Mou, Xinhua Cheng, Jian Zhang</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t xml:space="preserve">NeRF-HuGS: Improved Neural Radiance Fields in Non-static Scenes Using Heuristics-Guided Segmentation </t>
+          <t xml:space="preserve">Hierarchical Spatio-temporal Decoupling for Text-to-Video Generation </t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>nerf</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>Jiahao Chen, Yipeng Qin, Lingjie Liu, Jiangbo Lu, Guanbin Li</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr"/>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>video generation</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Zhiwu Qing, Shiwei Zhang, Jiayu Wang, Xiang Wang, Yujie Wei, Yingya Zhang, Changxin Gao, Nong Sang</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t xml:space="preserve">Consistent3D: Towards Consistent High-Fidelity Text-to-3D Generation with Deterministic Sampling Prior </t>
+          <t xml:space="preserve">Sherpa3D: Boosting High-Fidelity Text-to-3D Generation via Coarse 3D Prior </t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>https://liuff19.github.io/Sherpa3D/</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
           <t>3d generation</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>Zike Wu, Pan Zhou, YI Xuanyu, Xiaoding Yuan, Hanwang Zhang</t>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Fangfu Liu, Diankun Wu, Yi Wei, Yongming Rao, Yueqi Duan</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t xml:space="preserve">ManipLLM: Embodied Multimodal Large Language Model for Object-Centric Robotic Manipulation </t>
+          <t xml:space="preserve">Omni-SMoLA: Boosting Generalist Multimodal Models with Soft Mixture of Low-rank Experts </t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>multimodal</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>Xiaoqi Li, Mingxu Zhang, Yiran Geng, Haoran Geng, Yuxing Long, Yan Shen, Renrui Zhang, Jiaming Liu, Hao Dong</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr"/>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>multimodal</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Jialin Wu, Xia Hu, Yaqing Wang, Bo Pang, Radu Soricut</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t xml:space="preserve">GLaMM: Pixel Grounding Large Multimodal Model </t>
+          <t xml:space="preserve">ULIP-2: Towards Scalable Multimodal Pre-training for 3D Understanding </t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>multimodal</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Hanoona Rasheed, Muhammad Maaz, Sahal Shaji Mullappilly, Abdelrahman Shaker, Salman Khan, Hisham Cholakkal, Rao Anwer, Eric P. Xing, Ming-Hsuan Yang, Fahad Shahbaz Khan</t>
+          <t>https://github.com/salesforce/ULIP</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>multimodal</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Le Xue, Ning Yu, Shu Zhang, Artemis Panagopoulou, Junnan Li, Roberto Martín-Martín, Jiajun Wu, Caiming Xiong, Ran Xu, Juan Carlos Niebles, Silvio Savarese</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t xml:space="preserve">3D Geometry-aware Deformable Gaussian Splatting for Dynamic View Synthesis </t>
+          <t xml:space="preserve">SCINeRF: Neural Radiance Fields from a Snapshot Compressive Image </t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>gaussian splatting</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>Zhicheng Lu, xiang guo, Le Hui, Tianrui Chen, Min Yang, Xiao Tang, feng zhu, Yuchao Dai</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr"/>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>nerf,neural radiance</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Yunhao Li, Xiaodong Wang, Ping Wang, Xin Yuan, Peidong Liu</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fairy: Fast Parallellized Instruction-Guided Video-to-Video Synthesis </t>
+          <t xml:space="preserve">PIE-NeRF: Physics-based Interactive Elastodynamics with NeRF </t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>video synthesis</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Bichen Wu, Ching-Yao Chuang, Xiaoyan Wang, Yichen Jia, Kapil Krishnakumar, Tong Xiao, Feng Liang, Licheng Yu, Peter Vajda</t>
+          <t>https://fytalon.github.io/pienerf/</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>nerf</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Yutao Feng, Yintong Shang, Xuan Li, Tianjia Shao, Chenfanfu Jiang, Yin Yang</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t xml:space="preserve">SmartEdit: Exploring Complex Instruction-based Image Editing with Multimodal Large Language Models </t>
+          <t xml:space="preserve">HUGS: Holistic Urban 3D Scene Understanding via Gaussian Splatting </t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>multimodal</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>Yuzhou Huang, Liangbin Xie, Xintao Wang, Ziyang Yuan, Xiaodong Cun, Yixiao Ge, Jiantao Zhou, Chao Dong, Rui Huang, Ruimao Zhang, Ying Shan</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr"/>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>gaussian splatting</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Hongyu Zhou, Jiahao Shao, Lu Xu, Dongfeng Bai, Weichao Qiu, Bingbing Liu, Yue Wang, Andreas Geiger, Yiyi Liao</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t xml:space="preserve">Multimodal Industrial Anomaly Detection by Crossmodal Feature Mapping </t>
+          <t xml:space="preserve">DreamPropeller: Supercharge Text-to-3D Generation with Parallel Sampling </t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>multimodal</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>Alex Costanzino, Pierluigi Zama Ramirez, Giuseppe Lisanti, Luigi Di Stefano</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr"/>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>3d generation</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Linqi Zhou, Andy Shih, Chenlin Meng, Stefano Ermon</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t xml:space="preserve">DiSR-NeRF: Diffusion-Guided View-Consistent Super-Resolution NeRF </t>
+          <t xml:space="preserve">Improving Physics-Augmented Continuum Neural Radiance Field-Based Geometry-Agnostic System Identification with Lagrangian Particle Optimization </t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>nerf</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Jie Long Lee, Chen Li, Gim Hee Lee</t>
+          <t>https://www.kecl.ntt.co.jp/people/kaneko.takuhiro/projects/lpo/</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>neural radiance</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Takuhiro Kaneko</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t xml:space="preserve">When StyleGAN Meets Stable Diffusion: a ${\mathcal{W}_+}$ Adapter for Personalized Image Generation </t>
+          <t xml:space="preserve">SimDA: Simple Diffusion Adapter for Efficient Video Generation </t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>personalized</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>Xiaoming Li, Xinyu Hou, Chen Change Loy</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr"/>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>video generation</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Zhen Xing, Qi Dai, Han Hu, Zuxuan Wu, Yu-Gang Jiang</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t xml:space="preserve">PanoRecon: Real-Time Panoptic 3D Reconstruction from Monocular Video </t>
+          <t xml:space="preserve">A Recipe for Scaling up Text-to-Video Generation with Text-free Videos </t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>pano</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Dong Wu, Zike Yan, Hongbin Zha</t>
+          <t>https://tf-t2v.github.io/</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>video generation</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Xiang Wang, Shiwei Zhang, Hangjie Yuan, Zhiwu Qing, Biao Gong, Yingya Zhang, Yujun Shen, Changxin Gao, Nong Sang</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t xml:space="preserve">DIRECT-3D: Learning Direct Text-to-3D Generation on Massive Noisy 3D Data </t>
+          <t xml:space="preserve">Question Aware Vision Transformer for Multimodal Reasoning </t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>3d generation</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>Qihao Liu, Yi Zhang, Song Bai, Adam Kortylewski, Alan L. Yuille</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr"/>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>multimodal</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Roy Ganz, Yair Kittenplon, Aviad Aberdam, Elad Ben Avraham, Oren Nuriel, Shai Mazor, Ron Litman</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t xml:space="preserve">Text-to-3D Generation with Bidirectional Diffusion using both 3D and 2D priors </t>
+          <t xml:space="preserve">RELI11D: A Comprehensive Multimodal Human Motion Dataset and Method </t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>3d generation</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Lihe Ding, Shaocong Dong, Zhanpeng Huang, Zibin Wang, Yiyuan Zhang, Kaixiong Gong, Dan Xu, Tianfan Xue</t>
+          <t>http://www.lidarhumanmotion.net/reli11d/</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>multimodal</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Ming Yan, Yan Zhang, Shuqiang Cai, Shuqi Fan, Xincheng Lin, Yudi Dai, Siqi Shen, Chenglu Wen, Lan Xu, Yuexin Ma, Cheng Wang</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mirasol3B: A Multimodal Autoregressive Model for Time-Aligned and Contextual Modalities </t>
+          <t xml:space="preserve">Learned Scanpaths Aid Blind Panoramic Video Quality Assessment </t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>multimodal</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>AJ Piergiovanni, Isaac Noble, Dahun Kim, Michael Ryoo, Victor Gomes, Anelia Angelova</t>
+          <t>https://github.com/kalofan/AutoScanpathQA</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>pano</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Kanglong FAN, Wen Wen, Mu Li, YIFAN PENG, Kede Ma</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t xml:space="preserve">GaussianShader: 3D Gaussian Splatting with Shading Functions for Reflective Surfaces </t>
+          <t xml:space="preserve">Depth-Aware Concealed Crop Detection in Dense Agricultural Scenes </t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>gaussian splatting</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Yingwenqi Jiang, Jiadong Tu, Yuan Liu, Xifeng Gao, Xiaoxiao Long, Wenping Wang, Yuexin Ma</t>
+          <t>https://github.com/Kki2Eve/RISNet</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>cultural</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Liqiong Wang, Jinyu Yang, Yanfu Zhang, Fangyi Wang, Feng Zheng</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t xml:space="preserve">MMMU: A Massive Multi-discipline Multimodal Understanding and Reasoning Benchmark for Expert AGI </t>
+          <t xml:space="preserve">Mitigating Motion Blur in Neural Radiance Fields with Events and Frames </t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>multimodal</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Xiang Yue, Yuansheng Ni, Kai Zhang, Tianyu Zheng, Ruoqi Liu, Ge Zhang, Samuel Stevens, Dongfu Jiang, Weiming Ren, Yuxuan Sun, Cong Wei, Botao Yu, Ruibin Yuan, Renliang Sun, Ming Yin, Boyuan Zheng, Zhenzhu Yang, Yibo Liu, Wenhao Huang, Huan Sun, Yu Su, Wenhu Chen</t>
+          <t>https://github.com/uzh-rpg/EvDeblurNeRF</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>neural radiance</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Marco Cannici, Davide Scaramuzza</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t xml:space="preserve">DiffusionGAN3D: Boosting Text-guided 3D Generation and Domain Adaptation by Combining 3D GANs and Diffusion Priors </t>
+          <t xml:space="preserve">C3Net: Compound Conditioned ControlNet for Multimodal Content Generation </t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>3d generation</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>Biwen Lei, Kai Yu, Mengyang Feng, Miaomiao Cui, Xuansong Xie</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr"/>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>multimodal</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Juntao Zhang, Yuehuai LIU, Yu-Wing Tai, Chi-Keung Tang</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t xml:space="preserve">TimeChat: A Time-sensitive Multimodal Large Language Model for Long Video Understanding </t>
+          <t xml:space="preserve">FaceCom: Towards High-fidelity 3D Facial Shape Completion via Optimization and Inpainting Guidance </t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>multimodal</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>Shuhuai Ren, Linli Yao, Shicheng Li, Xu Sun, Lu Hou</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr"/>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>inpainting</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Yinglong Li, Hongyu Wu, Wang, Qingzhao Qin, yijiao zhao, Yong Wang, Aimin Hao</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t xml:space="preserve">3DGS-Avatar: Animatable Avatars via Deformable 3D Gaussian Splatting </t>
+          <t xml:space="preserve">Data-Efficient Multimodal Fusion on a Single GPU </t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>gaussian splatting</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>Zhiyin Qian, Shaofei Wang, Marko Mihajlovic, Andreas Geiger, Siyu Tang</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr"/>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>multimodal</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Noël Vouitsis, Zhaoyan Liu, Satya Krishna Gorti, Valentin Villecroze, Jesse C. Cresswell, Guangwei Yu, Gabriel Loaiza-Ganem, Maksims Volkovs</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t xml:space="preserve">PAIR Diffusion: A Comprehensive Multimodal Object-Level Image Editor </t>
+          <t xml:space="preserve">FedSelect: Personalized Federated Learning with Customized Selection of Parameters for Fine-Tuning </t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>multimodal</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>Vidit Goel, Elia Peruzzo, Yifan Jiang, Dejia Xu, Xingqian Xu, Nicu Sebe, Trevor Darrell, Zhangyang Wang, Humphrey Shi</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr"/>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>personalized</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Rishub Tamirisa, Chulin Xie, Wenxuan Bao, Andy Zhou, Ron Arel, Aviv Shamsian</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t xml:space="preserve">FineParser: A Fine-grained Spatio-temporal Action Parser for Human-centric Action Quality Assessment </t>
+          <t xml:space="preserve">FedAS: Bridging Inconsistency in Personalized Federated Learning </t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>human-centric</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Jinglin Xu, Sibo Yin, Guohao Zhao, Zishuo Wang, Yuxin Peng</t>
+          <t>https://github.com/xiyuanyang45/FedAS</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>personalized</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Xiyuan Yang, Wenke Huang, Mang Ye</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sculpt3D: Multi-View Consistent Text-to-3D Generation with Sparse 3D Prior </t>
+          <t xml:space="preserve">LangSplat: 3D Language Gaussian Splatting </t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>3d generation</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Chen Cheng, Xiaofeng Yang, Fan Yang, Chengzeng Feng, ZHOUJIE FU, Chuan-Sheng Foo, Guosheng Lin, Fayao Liu</t>
+          <t>https://langsplat.github.io/</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>gaussian splatting</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Minghan Qin, Wanhua Li, Jiawei ZHOU, Haoqian Wang, Hanspeter Pfister</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t xml:space="preserve">GP-NeRF: Generalized Perception NeRF for Context-Aware 3D Scene Understanding </t>
+          <t xml:space="preserve">Entangled View-Epipolar Information Aggregation for Generalizable Neural Radiance Fields </t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>nerf</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Hao Li, Dingwen Zhang, Yalun Dai, Nian Liu, Lechao Cheng, Li Jingfeng, Jingdong Wang, Junwei Han</t>
+          <t>https://github.com/tatakai1/EVENeRF</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>neural radiance</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Zhiyuan Min, Yawei Luo, Wei Yang, Yuesong Wang, Yi Yang</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t xml:space="preserve">MicroCinema: A Divide-and-Conquer Approach for Text-to-Video Generation </t>
+          <t xml:space="preserve">MMVP: A Multimodal MoCap Dataset with Vision and Pressure Sensors </t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>video generation</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Yanhui Wang, Jianmin Bao, Wenming Weng, Ruoyu Feng, Dacheng Yin, Tao Yang, Jingxu Zhang, Qi Dai, Zhiyuan Zhao, Chunyu Wang, Kai Qiu, Yuhui Yuan, Xiaoyan Sun, Chong Luo, Baining Guo</t>
+          <t>https://metaverse-ai-lab-thu.github.io/MMVP-Dataset/</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>multimodal</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>He Zhang, Shenghao Ren, Haolei Yuan, Jianhui Zhao, Fan Li, Shuangpeng Sun, Zhenghao Liang, Tao Yu, Qiu Shen, Xun Cao</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t xml:space="preserve">Structure Matters: Tackling the Semantic Discrepancy in Diffusion Models for Image Inpainting </t>
+          <t xml:space="preserve">SIGNeRF: Scene Integrated Generation for Neural Radiance Fields </t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>inpainting</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Haipeng Liu, Yang Wang, Biao Qian, Meng Wang, Yong Rui</t>
+          <t>https://signerf.jdihlmann.com/</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>nerf,neural radiance</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>Jan-Niklas Dihlmann, Andreas Engelhardt, Hendrik Lensch</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t xml:space="preserve">Modeling Multimodal Social Interactions: New Challenges and Baselines with Densely Aligned Representations </t>
+          <t xml:space="preserve">ViP-LLaVA: Making Large Multimodal Models Understand Arbitrary Visual Prompts </t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>multimodal</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Sangmin Lee, Bolin Lai, Fiona Ryan, Bikram Boote, James Rehg</t>
+          <t>https://vip-llava.github.io/</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>multimodal</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>Mu Cai, Haotian Liu, Siva Mustikovela, Gregory P. Meyer, Yuning Chai, Dennis Park, Yong Jae Lee</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t xml:space="preserve">PI3D: Efficient Text-to-3D Generation with Pseudo-Image Diffusion </t>
+          <t xml:space="preserve">4D Gaussian Splatting for Real-Time Dynamic Scene Rendering </t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>3d generation</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Ying-Tian Liu, Yuan-Chen Guo, Guan Luo, Heyi Sun, Wei Yin, Song-Hai Zhang</t>
+          <t>guanjunwu.github.io/4dgs</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>gaussian splatting</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>Guanjun Wu, Taoran Yi, Jiemin Fang, Lingxi Xie, Xiaopeng Zhang, Wei Wei, Wenyu Liu, Qi Tian, Xinggang Wang</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t xml:space="preserve">SyncMask: Synchronized Attentional Masking for Fashion-centric Vision-Language Pretraining </t>
+          <t xml:space="preserve">Binding Touch to Everything: Learning Unified Multimodal Tactile Representations </t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>fashion</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>Chull Hwan Song, Taebaek Hwang, Jooyoung Yoon, Shunghyun Choi, Yeong Hyeon Gu</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr"/>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>multimodal</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>Fengyu Yang, Chao Feng, Ziyang Chen, Hyoungseob Park, Daniel Wang, Yiming Dou, Ziyao Zeng, xien chen, Suchisrit Gangopadhyay, Andrew Owens, Alex Wong</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t xml:space="preserve">Countering Personalized Text-to-Image Generation with Influence Watermarks </t>
+          <t xml:space="preserve">Hallucination Augmented Contrastive Learning for Multimodal Large Language Model </t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>personalized</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>Hanwen Liu, Zhicheng Sun, Yadong Mu</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr"/>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>multimodal</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>Chaoya Jiang, Haiyang Xu, Mengfan Dong, Jiaxing Chen, Wei Ye, Ming Yan, Qinghao Ye, Ji Zhang, Fei Huang, Shikun Zhang</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t xml:space="preserve">Snap Video: Scaled Spatiotemporal Transformers for Text-to-Video Synthesis </t>
+          <t xml:space="preserve">GSNeRF: Generalizable Semantic Neural Radiance Fields with Enhanced 3D Scene Understanding </t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>video synthesis</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Willi Menapace, Aliaksandr Siarohin, Ivan Skorokhodov, Ekaterina Deyneka, Tsai-Shien Chen, Anil Kag, Yuwei Fang, Aleksei Stoliar, Elisa Ricci, Jian Ren, Sergey Tulyakov</t>
+          <t>https://timchou-ntu.github.io/gsnerf/</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>nerf,neural radiance</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>Zi-Ting Chou, Sheng-Yu Huang, I-Jieh Liu, Yu-Chiang Frank Wang</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t xml:space="preserve">A Unified Framework for Human-centric Point Cloud Video Understanding </t>
+          <t xml:space="preserve">Alpha Invariance: On Inverse Scaling Between Distance and Volume Density in Neural Radiance Fields </t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>human-centric</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Yiteng Xu, Kecheng Ye, xiao han, yiming ren, Xinge Zhu, Yuexin Ma</t>
+          <t>https://pals.ttic.edu/p/alpha-invariance</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>neural radiance</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>Joshua Ahn, Haochen Wang, Raymond A. Yeh, Greg Shakhnarovich</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t xml:space="preserve">Polos: Multimodal Metric Learning from Human Feedback for Image Captioning </t>
+          <t xml:space="preserve">HHMR: Holistic Hand Mesh Recovery by Enhancing the Multimodal Controllability of Graph Diffusion Models </t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>multimodal</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Yuiga Wada, Kanta Kaneda, Daichi Saito, Komei Sugiura</t>
+          <t>https://www.liuyebin.com/HHMR/HHMR.html</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>multimodal</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>Mengcheng Li, Hongwen Zhang, Yuxiang Zhang, Ruizhi Shao, Tao Yu, Yebin Liu</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t xml:space="preserve">Semantics, Distortion, and Style Matter: Towards Source-free UDA for Panoramic Segmentation </t>
+          <t xml:space="preserve">Mip-Splatting: Alias-free 3D Gaussian Splatting </t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>pano</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Xu Zheng, Pengyuan Zhou, ATHANASIOS, Addison, Lin Wang</t>
+          <t>https://niujinshuchong.github.io/mip-splatting/</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>gaussian splatting</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>Zehao Yu, Anpei Chen, Binbin Huang, Torsten Sattler, Andreas Geiger</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t xml:space="preserve">SplattingAvatar: Realistic Real-Time Human Avatars with Mesh-Embedded Gaussian Splatting </t>
+          <t xml:space="preserve">NeRF-HuGS: Improved Neural Radiance Fields in Non-static Scenes Using Heuristics-Guided Segmentation </t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>gaussian splatting</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>Zhijing Shao, Wang Zhaolong, Zhuang Li, Duotun Wang, Xiangru Lin, Yu Zhang, Mingming Fan, Zeyu Wang</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr"/>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>nerf,neural radiance</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>Jiahao Chen, Yipeng Qin, Lingjie Liu, Jiangbo Lu, Guanbin Li</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t xml:space="preserve">DrivingGaussian: Composite Gaussian Splatting for Surrounding Dynamic Autonomous Driving Scenes </t>
+          <t xml:space="preserve">Consistent3D: Towards Consistent High-Fidelity Text-to-3D Generation with Deterministic Sampling Prior </t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>gaussian splatting</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>Xiaoyu Zhou, Zhiwei Lin, Xiaojun Shan, Yongtao Wang, Deqing Sun, Ming-Hsuan Yang</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr"/>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>3d generation</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>Zike Wu, Pan Zhou, YI Xuanyu, Xiaoding Yuan, Hanwang Zhang</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t xml:space="preserve">JRDB-PanoTrack: An Open-world Panoptic Segmentation and Tracking Robotic Dataset in Crowded Human Environments </t>
+          <t xml:space="preserve">ManipLLM: Embodied Multimodal Large Language Model for Object-Centric Robotic Manipulation </t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>pano</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Duy Tho Le, Chenhui Gou, Stavya Datta, Hengcan Shi, Ian Reid, Jianfei Cai, Hamid Rezatofighi</t>
+          <t>https://sites.google.com/view/manipllm</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>multimodal</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>Xiaoqi Li, Mingxu Zhang, Yiran Geng, Haoran Geng, Yuxing Long, Yan Shen, Renrui Zhang, Jiaming Liu, Hao Dong</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t xml:space="preserve">NeRFDeformer: NeRF Transformation from a Single View via 3D Scene Flows </t>
+          <t xml:space="preserve">GLaMM: Pixel Grounding Large Multimodal Model </t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>nerf</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>Zhenggang Tang, Jason Ren, Xiaoming Zhao, Bowen Wen, Jonathan Tremblay, Stan Birchfield, Alexander G. Schwing</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr"/>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>multimodal</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>Hanoona Rasheed, Muhammad Maaz, Sahal Shaji Mullappilly, Abdelrahman Shaker, Salman Khan, Hisham Cholakkal, Rao Anwer, Eric P. Xing, Ming-Hsuan Yang, Fahad Shahbaz Khan</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t xml:space="preserve">Embracing Unimodal Aleatoric Uncertainty for Robust Multimodal Fusion </t>
+          <t xml:space="preserve">SmartEdit: Exploring Complex Instruction-based Image Editing with Multimodal Large Language Models </t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>multimodal</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>Zixian Gao, Xun Jiang, Xing Xu, Fumin Shen, Yujie Li, Heng Tao Shen</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr"/>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>multimodal</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>Yuzhou Huang, Liangbin Xie, Xintao Wang, Ziyang Yuan, Xiaodong Cun, Yixiao Ge, Jiantao Zhou, Chao Dong, Rui Huang, Ruimao Zhang, Ying Shan</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t xml:space="preserve">Unifying Correspondence, Pose and NeRF for Pose-Free Novel View Synthesis from Stereo Pairs </t>
+          <t xml:space="preserve">Multimodal Industrial Anomaly Detection by Crossmodal Feature Mapping </t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>nerf</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Sunghwan Hong, Jaewoo Jung, Heeseong Shin, Jiaolong Yang, Chong Luo, Seungryong Kim</t>
+          <t>https://cvlab-unibo.github.io/CrossmodalFeatureMapping/</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>multimodal</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>Alex Costanzino, Pierluigi Zama Ramirez, Giuseppe Lisanti, Luigi Di Stefano</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t xml:space="preserve">Draw Step by Step: Reconstructing CAD Construction Sequences from Point Clouds via Multimodal Diffusion. </t>
+          <t xml:space="preserve">DiSR-NeRF: Diffusion-Guided View-Consistent Super-Resolution NeRF </t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>multimodal</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>Weijian Ma, Shuaiqi Chen, Yunzhong Lou, Xueyang Li, Xiangdong Zhou</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr"/>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>nerf</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>Jie Long Lee, Chen Li, Gim Hee Lee</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t xml:space="preserve">PEEKABOO: Interactive Video Generation via Masked-Diffusion </t>
+          <t xml:space="preserve">PanoRecon: Real-Time Panoptic 3D Reconstruction from Monocular Video </t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>video generation</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>Yash Jain, Anshul Nasery, Vibhav Vineet, Harkirat Behl</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr"/>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>pano</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>Dong Wu, Zike Yan, Hongbin Zha</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t xml:space="preserve">Link-Context Learning for Multimodal LLMs </t>
+          <t xml:space="preserve">DIRECT-3D: Learning Direct Text-to-3D Generation on Massive Noisy 3D Data </t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>multimodal</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Yan Tai, Weichen Fan, Zhao Zhang, Ziwei Liu</t>
+          <t>https://direct-3d.github.io/</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>3d generation</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>Qihao Liu, Yi Zhang, Song Bai, Adam Kortylewski, Alan L. Yuille</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t xml:space="preserve">JeDi: Joint-Image Diffusion Models for Finetuning-Free Personalized Text-to-Image Generation </t>
+          <t xml:space="preserve">Mirasol3B: A Multimodal Autoregressive Model for Time-Aligned and Contextual Modalities </t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>personalized</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>Yu Zeng, Vishal M. Patel, Haochen Wang, Xun Huang, Ting-Chun Wang, Ming-Yu Liu, Yogesh Balaji</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr"/>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>multimodal</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>AJ Piergiovanni, Isaac Noble, Dahun Kim, Michael Ryoo, Victor Gomes, Anelia Angelova</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t xml:space="preserve">On the Robustness of Large Multimodal Models Against Image Adversarial Attacks </t>
+          <t xml:space="preserve">GaussianShader: 3D Gaussian Splatting with Shading Functions for Reflective Surfaces </t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>multimodal</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>Xuanming Cui, Alejandro Aparcedo, Young Kyun Jang, Ser-Nam Lim</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr"/>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>gaussian splatting</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>Yingwenqi Jiang, Jiadong Tu, Yuan Liu, Xifeng Gao, Xiaoxiao Long, Wenping Wang, Yuexin Ma</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t xml:space="preserve">VP3D: Unleashing 2D Visual Prompt for Text-to-3D Generation </t>
+          <t xml:space="preserve">DiffusionGAN3D: Boosting Text-guided 3D Generation and Domain Adaptation by Combining 3D GANs and Diffusion Priors </t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr"/>
+      <c r="D118" t="inlineStr">
+        <is>
           <t>3d generation</t>
         </is>
       </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>Yang Chen, Yingwei Pan, haibo yang, Ting Yao, Tao Mei</t>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>Biwen Lei, Kai Yu, Mengyang Feng, Miaomiao Cui, Xuansong Xie</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sieve: Multimodal Dataset Pruning using Image-Captioning Models </t>
+          <t xml:space="preserve">TimeChat: A Time-sensitive Multimodal Large Language Model for Long Video Understanding </t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>multimodal</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Anas Mahmoud, Mostafa Elhoushi, Amro Abbas, Yu Yang, Newsha Ardalani, Hugh Leather, Ari Morcos</t>
+          <t>https://github.com/RenShuhuai-Andy/TimeChat</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>multimodal</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>Shuhuai Ren, Linli Yao, Shicheng Li, Xu Sun, Lu Hou</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t xml:space="preserve">Generative Rendering: Controllable 4D-Guided Video Generation with 2D Diffusion Models </t>
+          <t xml:space="preserve">3DGS-Avatar: Animatable Avatars via Deformable 3D Gaussian Splatting </t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>video generation</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>Shengqu Cai, Duygu Ceylan, Matheus Gadelha, Chun-Hao P. Huang, Tuanfeng Y. Wang, Gordon Wetzstein</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr"/>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>gaussian splatting</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>Zhiyin Qian, Shaofei Wang, Marko Mihajlovic, Andreas Geiger, Siyu Tang</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t xml:space="preserve">Global and Hierarchical Geometry Consistency Priors for Few-shot NeRFs in Indoor Scenes </t>
+          <t xml:space="preserve">IReNe: Instant Recoloring of Neural Radiance Fields </t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>nerf</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Xiaotian Sun, Qingshan Xu, Xinjie Yang, Yu Zang, Cheng Wang</t>
+          <t>https://iviazz97.github.io/irene/</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>neural radiance</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>Alessio Mazzucchelli, Adrian Garcia-Garcia, Elena Garces, Fernando Rivas-Manzaneque, Francesc Moreno-Noguer, Adrian Penate-Sanchez</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t xml:space="preserve">Animate Anyone: Consistent and Controllable Image-to-Video Synthesis for Character Animation </t>
+          <t xml:space="preserve">LidaRF: Delving into Lidar for Neural Radiance Field on Street Scenes </t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>video synthesis</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Li Hu</t>
+          <t>https://siwensun.github.io/lidarf-project/</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>neural radiance</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>Shanlin Sun, Bingbing Zhuang, Ziyu Jiang, Buyu Liu, Xiaohui Xie, Manmohan Chandraker</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t xml:space="preserve">GPT-4V(ision) is a Human-Aligned Evaluator for Text-to-3D Generation </t>
+          <t xml:space="preserve">FineParser: A Fine-grained Spatio-temporal Action Parser for Human-centric Action Quality Assessment </t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>3d generation</t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>Tong Wu, Guandao Yang, Zhibing Li, Kai Zhang, Ziwei Liu, Leonidas Guibas, Dahua Lin, Gordon Wetzstein</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr"/>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>human-centric</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>Jinglin Xu, Sibo Yin, Guohao Zhao, Zishuo Wang, Yuxin Peng</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t xml:space="preserve">SpikeNeRF: Learning Neural Radiance Fields from Continuous Spike Stream </t>
+          <t xml:space="preserve">Sculpt3D: Multi-View Consistent Text-to-3D Generation with Sparse 3D Prior </t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>nerf</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>Lin Zhu, Kangmin Jia, Yifan Zhao, Yunshan Qi, Lizhi Wang, Hua Huang</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr"/>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>3d generation</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>Chen Cheng, Xiaofeng Yang, Fan Yang, Chengzeng Feng, ZHOUJIE FU, Chuan-Sheng Foo, Guosheng Lin, Fayao Liu</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t xml:space="preserve">AlignMiF: Geometry-Aligned Multimodal Implicit Field for Enhanced LiDAR-Camera Joint Synthesis </t>
+          <t xml:space="preserve">GP-NeRF: Generalized Perception NeRF for Context-Aware 3D Scene Understanding </t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>multimodal</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>Tao Tang, Guangrun Wang, Yixing Lao, Peng Chen, Jie Liu, Liang Lin, Kaicheng Yu, Xiaodan Liang</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr"/>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>nerf</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>Hao Li, Dingwen Zhang, Yalun Dai, Nian Liu, Lechao Cheng, Li Jingfeng, Jingdong Wang, Junwei Han</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t xml:space="preserve">Generate Subgoal Images before Act: Unlocking the Chain-of-Thought Reasoning in Diffusion Model for Robot Manipulation with Multimodal Prompts </t>
+          <t xml:space="preserve">MicroCinema: A Divide-and-Conquer Approach for Text-to-Video Generation </t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>multimodal</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>Fei Ni, Jianye Hao, Shiguang Wu, Longxin Kou, Jiashun Liu, YAN ZHENG, Bin Wang, Yuzheng Zhuang</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr"/>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>video generation</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>Yanhui Wang, Jianmin Bao, Wenming Weng, Ruoyu Feng, Dacheng Yin, Tao Yang, Jingxu Zhang, Qi Dai, Zhiyuan Zhao, Chunyu Wang, Kai Qiu, Yuhui Yuan, Xiaoyan Sun, Chong Luo, Baining Guo</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t xml:space="preserve">PanoPose: Self-supervised Relative Pose Estimation for Panoramic Images </t>
+          <t xml:space="preserve">Structure Matters: Tackling the Semantic Discrepancy in Diffusion Models for Image Inpainting </t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>pano</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Diantao Tu, Hainan Cui, Xianwei Zheng, Shuhan Shen</t>
+          <t>https://github.com/htyjers/StrDiffusion</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>inpainting</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>Haipeng Liu, Yang Wang, Biao Qian, Meng Wang, Yong Rui</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fully Geometric Panoramic Localization </t>
+          <t xml:space="preserve">Modeling Multimodal Social Interactions: New Challenges and Baselines with Densely Aligned Representations </t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>pano</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Junho Kim, Jiwon Jeong, Young Min Kim</t>
+          <t>https://sangmin-git.github.io/projects/MMSI</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>multimodal</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>Sangmin Lee, Bolin Lai, Fiona Ryan, Bikram Boote, James Rehg</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t xml:space="preserve">NeRF Director: Revisiting View Selection in Neural Volume Rendering </t>
+          <t xml:space="preserve">PI3D: Efficient Text-to-3D Generation with Pseudo-Image Diffusion </t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>nerf</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>Wenhui Xiao, Rodrigo Santa Cruz, David Ahmedt-Aristizabal, Olivier Salvado, Clinton Fookes, Leo Lebrat</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr"/>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>3d generation</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>Ying-Tian Liu, Yuan-Chen Guo, Guan Luo, Heyi Sun, Wei Yin, Song-Hai Zhang</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t xml:space="preserve">ECLIPSE: Efficient Continual Learning in Panoptic Segmentation with Visual Prompt Tuning </t>
+          <t xml:space="preserve">SyncMask: Synchronized Attentional Masking for Fashion-centric Vision-Language Pretraining </t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>pano</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>Beomyoung Kim, Joonsang Yu, Sung Ju Hwang</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr"/>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>fashion</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>Chull Hwan Song, Taebaek Hwang, Jooyoung Yoon, Shunghyun Choi, Yeong Hyeon Gu</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t xml:space="preserve">Towards Language-Driven Video Inpainting via Multimodal Large Language Models </t>
+          <t xml:space="preserve">Countering Personalized Text-to-Image Generation with Influence Watermarks </t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>inpainting,multimodal</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>Jianzong Wu, Xiangtai Li, Chenyang Si, Shangchen Zhou, Jingkang Yang, Jiangning Zhang, Yining Li, Kai Chen, Yunhai Tong, Ziwei Liu, Chen Change Loy</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr"/>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>personalized</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>Hanwen Liu, Zhicheng Sun, Yadong Mu</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t xml:space="preserve">Text-to-3D using Gaussian Splatting </t>
+          <t xml:space="preserve">Snap Video: Scaled Spatiotemporal Transformers for Text-to-Video Synthesis </t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>gaussian splatting</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>Zilong Chen, Feng Wang, Yikai Wang, Huaping Liu</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr"/>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>video synthesis</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>Willi Menapace, Aliaksandr Siarohin, Ivan Skorokhodov, Ekaterina Deyneka, Tsai-Shien Chen, Anil Kag, Yuwei Fang, Aleksei Stoliar, Elisa Ricci, Jian Ren, Sergey Tulyakov</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t xml:space="preserve">Co-Speech Gesture Video Generation via Motion-Decoupled Diffusion Model </t>
+          <t xml:space="preserve">A Unified Framework for Human-centric Point Cloud Video Understanding </t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>video generation</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>Xu He, Qiaochu Huang, Zhensong Zhang, Zhiwei Lin, Zhiyong Wu, Sicheng Yang, Minglei Li, Zhiyi Chen, Songcen Xu, Xiaofei Wu</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr"/>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>human-centric</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>Yiteng Xu, Kecheng Ye, xiao han, yiming ren, Xinge Zhu, Yuexin Ma</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t xml:space="preserve">GlitchBench: Can large multimodal models detect video game glitches? </t>
+          <t xml:space="preserve">Polos: Multimodal Metric Learning from Human Feedback for Image Captioning </t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>multimodal</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Mohammad Reza Taesiri, Tianjun Feng, Cor-Paul Bezemer, Anh Nguyen</t>
+          <t>https://yuiga.dev/polos</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>multimodal</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>Yuiga Wada, Kanta Kaneda, Daichi Saito, Komei Sugiura</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t xml:space="preserve">DiffPerformer: Iterative Learning of Consistent Latent Guidance for Diffusion-based Human Video Generation </t>
+          <t xml:space="preserve">SplattingAvatar: Realistic Real-Time Human Avatars with Mesh-Embedded Gaussian Splatting </t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>video generation</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Chenyang Wang, Zerong Zheng, Tao Yu, Xiaoqian Lv, Bineng Zhong, Shengping Zhang, Liqiang Nie</t>
+          <t>https://initialneil.github.io/SplattingAvatar</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>gaussian splatting</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>Zhijing Shao, Wang Zhaolong, Zhuang Li, Duotun Wang, Xiangru Lin, Yu Zhang, Mingming Fan, Zeyu Wang</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t xml:space="preserve">Don't Look into the Dark: Latent Codes for Pluralistic Image Inpainting </t>
+          <t xml:space="preserve">DrivingGaussian: Composite Gaussian Splatting for Surrounding Dynamic Autonomous Driving Scenes </t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>inpainting</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>Haiwei Chen, Yajie Zhao</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr"/>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>gaussian splatting</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>Xiaoyu Zhou, Zhiwei Lin, Xiaojun Shan, Yongtao Wang, Deqing Sun, Ming-Hsuan Yang</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t xml:space="preserve">MA-LMM: Memory-Augmented Large Multimodal Model for Long-Term Video Understanding </t>
+          <t xml:space="preserve">JRDB-PanoTrack: An Open-world Panoptic Segmentation and Tracking Robotic Dataset in Crowded Human Environments </t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>multimodal</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>Bo He, Hengduo Li, Young Kyun Jang, Menglin Jia, Xuefei Cao, Ashish Shah, Abhinav Shrivastava, Ser-Nam Lim</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr"/>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>pano</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>Duy Tho Le, Chenhui Gou, Stavya Datta, Hengcan Shi, Ian Reid, Jianfei Cai, Hamid Rezatofighi</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t xml:space="preserve">SNIFFER: Multimodal Large Language Model for Explainable Out-of-Context Misinformation Detection </t>
+          <t xml:space="preserve">NeRFDeformer: NeRF Transformation from a Single View via 3D Scene Flows </t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>multimodal</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>Peng Qi, Zehong Yan, Wynne Hsu, Mong Li Lee</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr"/>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>nerf</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>Zhenggang Tang, Jason Ren, Xiaoming Zhao, Bowen Wen, Jonathan Tremblay, Stan Birchfield, Alexander G. Schwing</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t xml:space="preserve">Compressed 3D Gaussian Splatting for Accelerated Novel View Synthesis </t>
+          <t xml:space="preserve">Embracing Unimodal Aleatoric Uncertainty for Robust Multimodal Fusion </t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>gaussian splatting</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>Simon Niedermayr, Josef Stumpfegger, rüdiger westermann</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr"/>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>multimodal</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>Zixian Gao, Xun Jiang, Xing Xu, Fumin Shen, Yujie Li, Heng Tao Shen</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t xml:space="preserve">EMOPortraits: Emotion-enhanced Multimodal One-shot Head Avatars </t>
+          <t xml:space="preserve">Draw Step by Step: Reconstructing CAD Construction Sequences from Point Clouds via Multimodal Diffusion. </t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>multimodal</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>Nikita Drobyshev, Antoni Bigata Casademunt, Konstantinos Vougioukas, Zoe Landgraf, Stavros Petridis, Maja Pantic</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr"/>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>multimodal</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>Weijian Ma, Shuaiqi Chen, Yunzhong Lou, Xueyang Li, Xiangdong Zhou</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t xml:space="preserve">PanoOcc: Unified Occupancy Representation for Camera-based 3D Panoptic Segmentation </t>
+          <t xml:space="preserve">PEEKABOO: Interactive Video Generation via Masked-Diffusion </t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>pano</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>Yuqi Wang, Yuntao Chen, Xingyu Liao, Lue Fan, Zhaoxiang Zhang</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr"/>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>video generation</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>Yash Jain, Anshul Nasery, Vibhav Vineet, Harkirat Behl</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t xml:space="preserve">Customize your NeRF: Adaptive Source Driven 3D Scene Editing via Local-Global Iterative Training </t>
+          <t xml:space="preserve">Link-Context Learning for Multimodal LLMs </t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>nerf</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>Runze He, Shaofei Huang, Xuecheng Nie, Tianrui Hui, Luoqi Liu, Jiao Dai, Jizhong Han, Guanbin Li, Si Liu</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr"/>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>multimodal</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>Yan Tai, Weichen Fan, Zhao Zhang, Ziwei Liu</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t xml:space="preserve">SC-GS: Sparse-Controlled Gaussian Splatting for Editable Dynamic Scenes </t>
+          <t xml:space="preserve">On the Robustness of Large Multimodal Models Against Image Adversarial Attacks </t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>gaussian splatting</t>
-        </is>
-      </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>Yihua Huang, Yangtian Sun, Ziyi Yang, Xiaoyang Lyu, Yan-Pei Cao, Xiaojuan Qi</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr"/>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>multimodal</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>Xuanming Cui, Alejandro Aparcedo, Young Kyun Jang, Ser-Nam Lim</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t xml:space="preserve">VideoBooth: Diffusion-based Video Generation with Image Prompts </t>
+          <t xml:space="preserve">VP3D: Unleashing 2D Visual Prompt for Text-to-3D Generation </t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>video generation</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Yuming Jiang, Tianxing Wu, Shuai Yang, Chenyang Si, Dahua Lin, Yu Qiao, Chen Change Loy, Ziwei Liu</t>
+          <t>https://vp3d-cvpr24.github.io/</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>3d generation</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>Yang Chen, Yingwei Pan, haibo yang, Ting Yao, Tao Mei</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t xml:space="preserve">Direct2.5: Diverse Text-to-3D Generation via Multi-view 2.5D Diffusion </t>
+          <t xml:space="preserve">Generative Rendering: Controllable 4D-Guided Video Generation with 2D Diffusion Models </t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>3d generation</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Yuanxun Lu, Jingyang Zhang, Shiwei Li, Tian Fang, David McKinnon, Yanghai Tsin, Long Quan, Xun Cao, Yao Yao</t>
+          <t>https://primecai.github.io/generative_rendering/</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>video generation</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>Shengqu Cai, Duygu Ceylan, Matheus Gadelha, Chun-Hao P. Huang, Tuanfeng Y. Wang, Gordon Wetzstein</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t xml:space="preserve">GSVA: Generalized Segmentation via Multimodal Large Language Models </t>
+          <t xml:space="preserve">Global and Hierarchical Geometry Consistency Priors for Few-shot NeRFs in Indoor Scenes </t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>multimodal</t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>Zhuofan Xia, Dongchen Han, Yizeng Han, Xuran Pan, Shiji Song, Gao Huang</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr"/>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>nerf</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>Xiaotian Sun, Qingshan Xu, Xinjie Yang, Yu Zang, Cheng Wang</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t xml:space="preserve">V*: Guided Visual Search as a Core Mechanism in Multimodal LLMs </t>
+          <t xml:space="preserve">Animate Anyone: Consistent and Controllable Image-to-Video Synthesis for Character Animation </t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>multimodal</t>
-        </is>
-      </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>Penghao Wu, Saining Xie</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr"/>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>video synthesis</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>Li Hu</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t xml:space="preserve">Can Language Beat Numerical Regression? Language-Based Multimodal Trajectory Prediction </t>
+          <t xml:space="preserve">GPT-4V(ision) is a Human-Aligned Evaluator for Text-to-3D Generation </t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>multimodal</t>
-        </is>
-      </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>Inhwan Bae, Junoh Lee, Hae-Gon Jeon</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr"/>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>3d generation</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>Tong Wu, Guandao Yang, Zhibing Li, Kai Zhang, Ziwei Liu, Leonidas Guibas, Dahua Lin, Gordon Wetzstein</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t xml:space="preserve">GaussianEditor: Swift and Controllable 3D Editing with Gaussian Splatting </t>
+          <t xml:space="preserve">SpikeNeRF: Learning Neural Radiance Fields from Continuous Spike Stream </t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>gaussian splatting</t>
-        </is>
-      </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>Yiwen Chen, Zilong Chen, Chi Zhang, Feng Wang, Xiaofeng Yang, Yikai Wang, Zhongang Cai, Lei Yang, Huaping Liu, Guosheng Lin</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr"/>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>nerf,neural radiance</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>Lin Zhu, Kangmin Jia, Yifan Zhao, Yunshan Qi, Lizhi Wang, Hua Huang</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t xml:space="preserve">Panacea: Panoramic and Controllable Video Generation for Autonomous Driving </t>
+          <t xml:space="preserve">Generate Subgoal Images before Act: Unlocking the Chain-of-Thought Reasoning in Diffusion Model for Robot Manipulation with Multimodal Prompts </t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>video generation,pano</t>
-        </is>
-      </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>Yuqing Wen, Yucheng Zhao, Yingfei Liu, Fan Jia, Yanhui Wang, Chong Luo, Chi Zhang, Tiancai Wang, Xiaoyan Sun, Xiangyu Zhang</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr"/>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>multimodal</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>Fei Ni, Jianye Hao, Shiguang Wu, Longxin Kou, Jiashun Liu, YAN ZHENG, Bin Wang, Yuzheng Zhuang</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t xml:space="preserve">Multi-Modal Proxy Learning Towards Personalized Visual Multiple Clustering </t>
+          <t xml:space="preserve">PanoPose: Self-supervised Relative Pose Estimation for Panoramic Images </t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>personalized</t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>Jiawei Yao, Qi Qian, Juhua Hu</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr"/>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>pano</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>Diantao Tu, Hainan Cui, Xianwei Zheng, Shuhan Shen</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t xml:space="preserve">HumanNeRF-SE: A Simple yet Effective Approach to Animate HumanNeRF with Diverse Poses </t>
+          <t xml:space="preserve">Fully Geometric Panoramic Localization </t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>nerf</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Caoyuan Ma, Yu-Lun Liu, Zhixiang Wang, Wu Liu, Xinchen Liu, Zheng Wang</t>
+          <t>https://82magnolia.github.io/fgpl/</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>pano</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>Junho Kim, Jiwon Jeong, Young Min Kim</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t xml:space="preserve">Taming Mode Collapse in Score Distillation for Text-to-3D Generation </t>
+          <t xml:space="preserve">NeRF Director: Revisiting View Selection in Neural Volume Rendering </t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>3d generation</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Peihao Wang, Dejia Xu, Zhiwen Fan, Dilin Wang, Sreyas Mohan, Forrest Iandola, Rakesh Ranjan, Yilei Li, Qiang Liu, Zhangyang Wang, Vikas Chandra</t>
+          <t>https://wenwhx.github.io/nerfdirector/</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>nerf</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>Wenhui Xiao, Rodrigo Santa Cruz, David Ahmedt-Aristizabal, Olivier Salvado, Clinton Fookes, Leo Lebrat</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t xml:space="preserve">Weakly Misalignment-free Adaptive Feature Alignment for UAVs-based Multimodal Object Detection </t>
+          <t xml:space="preserve">ECLIPSE: Efficient Continual Learning in Panoptic Segmentation with Visual Prompt Tuning </t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>multimodal</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Chen Chen, Jiahao Qi, Xingyue Liu, Kangcheng Bin, Ruigang Fu, Xikun Hu, Ping Zhong</t>
+          <t>https://github.com/clovaai/ECLIPSE</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>pano</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>Beomyoung Kim, Joonsang Yu, Sung Ju Hwang</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t xml:space="preserve">PlatoNeRF: 3D Reconstruction in Plato’s Cave via Single-View Two-Bounce Lidar </t>
+          <t xml:space="preserve">Towards Language-Driven Video Inpainting via Multimodal Large Language Models </t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>nerf</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Tzofi Klinghoffer, Xiaoyu Xiang, Siddharth Somasundaram, Yuchen Fan, Christian Richardt, Ramesh Raskar, Rakesh Ranjan</t>
+          <t>https://jianzongwu.github.io/projects/rovi/</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>inpainting,multimodal</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>Jianzong Wu, Xiangtai Li, Chenyang Si, Shangchen Zhou, Jingkang Yang, Jiangning Zhang, Yining Li, Kai Chen, Yunhai Tong, Ziwei Liu, Chen Change Loy</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t xml:space="preserve">PanoContext-Former: Panoramic Total Scene Understanding with a Transformer </t>
+          <t xml:space="preserve">Text-to-3D using Gaussian Splatting </t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>pano</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Yuan Dong, Chuan Fang, Liefeng Bo, Zilong Dong, Ping Tan</t>
+          <t>https://gsgen3d.github.io/</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>gaussian splatting</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>Zilong Chen, Feng Wang, Yikai Wang, Huaping Liu</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tailored Visions: Enhancing Text-to-Image Generation with Personalized Prompt Rewriting </t>
+          <t xml:space="preserve">Co-Speech Gesture Video Generation via Motion-Decoupled Diffusion Model </t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>personalized</t>
-        </is>
-      </c>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>Zijie Chen, Lichao Zhang, Fangsheng Weng, Lili Pan, ZHENZHONG Lan</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr"/>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>video generation</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>Xu He, Qiaochu Huang, Zhensong Zhang, Zhiwei Lin, Zhiyong Wu, Sicheng Yang, Minglei Li, Zhiyi Chen, Songcen Xu, Xiaofei Wu</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contextual Augmented Global Contrast for Multimodal Intent Recognition </t>
+          <t xml:space="preserve">DiffPerformer: Iterative Learning of Consistent Latent Guidance for Diffusion-based Human Video Generation </t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>multimodal</t>
-        </is>
-      </c>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>Kaili Sun, Zhiwen Xie, Mang Ye, Huyin Zhang</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr"/>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>video generation</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>Chenyang Wang, Zerong Zheng, Tao Yu, Xiaoqian Lv, Bineng Zhong, Shengping Zhang, Liqiang Nie</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t xml:space="preserve">CoGS: Controllable Gaussian Splatting </t>
+          <t xml:space="preserve">Don't Look into the Dark: Latent Codes for Pluralistic Image Inpainting </t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>gaussian splatting</t>
-        </is>
-      </c>
-      <c r="C159" t="inlineStr">
-        <is>
-          <t>Heng Yu, Joel Julin, Zoltán Á. Milacski, Koichiro Niinuma, László A. Jeni</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr"/>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>inpainting</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>Haiwei Chen, Yajie Zhao</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t xml:space="preserve">$360+x$: A Panoptic Multi-modal Scene Understanding Dataset </t>
+          <t xml:space="preserve">MA-LMM: Memory-Augmented Large Multimodal Model for Long-Term Video Understanding </t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>pano</t>
-        </is>
-      </c>
-      <c r="C160" t="inlineStr">
-        <is>
-          <t>Hao Chen, Yuqi Hou, Chenyuan Qu, Irene Testini, Xiaohan Hong, Jianbo Jiao</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr"/>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>multimodal</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>Bo He, Hengduo Li, Young Kyun Jang, Menglin Jia, Xuefei Cao, Ashish Shah, Abhinav Shrivastava, Ser-Nam Lim</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t xml:space="preserve">Honeybee: Locality-enhanced Projector for Multimodal LLM </t>
+          <t xml:space="preserve">SNIFFER: Multimodal Large Language Model for Explainable Out-of-Context Misinformation Detection </t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>multimodal</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Junbum Cha, Woo-Young Kang, Jonghwan Mun, Byungseok Roh</t>
+          <t>https://pengqi.site/Sniffer/</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>multimodal</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>Peng Qi, Zehong Yan, Wynne Hsu, Mong Li Lee</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t xml:space="preserve">Entity-NeRF: Detecting and Removing Moving Entities in Urban Scenes </t>
+          <t xml:space="preserve">DyBluRF: Dynamic Neural Radiance Fields from Blurry Monocular Video </t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>nerf</t>
-        </is>
-      </c>
-      <c r="C162" t="inlineStr">
-        <is>
-          <t>Takashi Otonari, Satoshi Ikehata, Kiyoharu Aizawa</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr"/>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>neural radiance</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>Huiqiang Sun, Xingyi Li, Liao Shen, Xinyi Ye, Ke Xian, Zhiguo Cao</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t xml:space="preserve">GauHuman: Articulated Gaussian Splatting from Monocular Human Videos </t>
+          <t xml:space="preserve">Compressed 3D Gaussian Splatting for Accelerated Novel View Synthesis </t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>https://keksboter.github.io/c3dgs/</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
           <t>gaussian splatting</t>
         </is>
       </c>
-      <c r="C163" t="inlineStr">
-        <is>
-          <t>Shoukang Hu, Tao Hu, Ziwei Liu</t>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>Simon Niedermayr, Josef Stumpfegger, rüdiger westermann</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t xml:space="preserve">FlowVid: Taming Imperfect Optical Flows for Consistent Video-to-Video Synthesis </t>
+          <t xml:space="preserve">EMOPortraits: Emotion-enhanced Multimodal One-shot Head Avatars </t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>video synthesis</t>
-        </is>
-      </c>
-      <c r="C164" t="inlineStr">
-        <is>
-          <t>Feng Liang, Bichen Wu, Jialiang Wang, Licheng Yu, Kunpeng Li, Yinan Zhao, Ishan Misra, Jia-Bin Huang, Peizhao Zhang, Peter Vajda, Diana Marculescu</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr"/>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>multimodal</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>Nikita Drobyshev, Antoni Bigata Casademunt, Konstantinos Vougioukas, Zoe Landgraf, Stavros Petridis, Maja Pantic</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t xml:space="preserve">COLMAP-Free 3D Gaussian Splatting </t>
+          <t xml:space="preserve">PanoOcc: Unified Occupancy Representation for Camera-based 3D Panoptic Segmentation </t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>gaussian splatting</t>
-        </is>
-      </c>
-      <c r="C165" t="inlineStr">
-        <is>
-          <t>Yang Fu, Sifei Liu, Amey Kulkarni, Jan Kautz, Alexei A. Efros, Xiaolong Wang</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr"/>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>pano</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>Yuqi Wang, Yuntao Chen, Xingyu Liao, Lue Fan, Zhaoxiang Zhang</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t xml:space="preserve">Multimodal Pathway: Improve Transformers with Irrelevant Data from Other Modalities </t>
+          <t xml:space="preserve">Customize your NeRF: Adaptive Source Driven 3D Scene Editing via Local-Global Iterative Training </t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>multimodal</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Yiyuan Zhang, Xiaohan Ding, Kaixiong Gong, Yixiao Ge, Ying Shan, Xiangyu Yue</t>
+          <t>https://customnerf.github.io/</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>nerf</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>Runze He, Shaofei Huang, Xuecheng Nie, Tianrui Hui, Luoqi Liu, Jiao Dai, Jizhong Han, Guanbin Li, Si Liu</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t xml:space="preserve">MVIP-NeRF: Multi-view 3D Inpainting on NeRF Scenes via Diffusion Prior </t>
+          <t xml:space="preserve">SC-GS: Sparse-Controlled Gaussian Splatting for Editable Dynamic Scenes </t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>nerf,inpainting</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Honghua Chen, Chen Change Loy, Xingang Pan</t>
+          <t>https://yihua7.github.io/SC-GS-web/</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>gaussian splatting</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>Yihua Huang, Yangtian Sun, Ziyi Yang, Xiaoyang Lyu, Yan-Pei Cao, Xiaojuan Qi</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t xml:space="preserve">BadCLIP: Dual-Embedding Guided Backdoor Attack on Multimodal Contrastive Learning </t>
+          <t xml:space="preserve">Geometry-aware Reconstruction and Fusion-refined Rendering for Generalizable Neural Radiance Fields </t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>multimodal</t>
-        </is>
-      </c>
-      <c r="C168" t="inlineStr">
-        <is>
-          <t>Siyuan Liang, Mingli Zhu, Aishan Liu, Baoyuan Wu, Xiaochun Cao, Ee-Chien Chang</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr"/>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>neural radiance</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>TIANQI LIU, Xinyi Ye, Min Shi, Zihao Huang, Zhiyu Pan, Zhan Peng, Zhiguo Cao</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t xml:space="preserve">GPS-Gaussian: Generalizable Pixel-wise 3D Gaussian Splatting for Real-time Human Novel View Synthesis </t>
+          <t xml:space="preserve">VideoBooth: Diffusion-based Video Generation with Image Prompts </t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>gaussian splatting</t>
-        </is>
-      </c>
-      <c r="C169" t="inlineStr">
-        <is>
-          <t>Shunyuan Zheng, Boyao ZHOU, Ruizhi Shao, Boning Liu, Shengping Zhang, Liqiang Nie, Yebin Liu</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr"/>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>video generation</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>Yuming Jiang, Tianxing Wu, Shuai Yang, Chenyang Si, Dahua Lin, Yu Qiao, Chen Change Loy, Ziwei Liu</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t xml:space="preserve">NeRFiller: Completing Scenes via Generative 3D Inpainting </t>
+          <t xml:space="preserve">Direct2.5: Diverse Text-to-3D Generation via Multi-view 2.5D Diffusion </t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>nerf,inpainting</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Ethan Weber, Aleksander Holynski, Varun Jampani, Saurabh Saxena, Noah Snavely, Abhishek Kar, Angjoo Kanazawa</t>
+          <t>https://nju-3dv.github.io/projects/direct25/</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>3d generation</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>Yuanxun Lu, Jingyang Zhang, Shiwei Li, Tian Fang, David McKinnon, Yanghai Tsin, Long Quan, Xun Cao, Yao Yao</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cloud-Device Collaborative Learning for Multimodal Large Language Models </t>
+          <t xml:space="preserve">GSVA: Generalized Segmentation via Multimodal Large Language Models </t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>multimodal</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Guanqun Wang, Jiaming Liu, Chenxuan Li, Yuan Zhang, Ma Junpeng, Xinyu Wei, Kevin Zhang, Maurice Chong, Renrui Zhang, Yijiang Liu, Shanghang Zhang</t>
+          <t>https://github.com/LeapLabTHU/GSVA</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>multimodal</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>Zhuofan Xia, Dongchen Han, Yizeng Han, Xuran Pan, Shiji Song, Gao Huang</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t xml:space="preserve">Source-Free Domain Adaptation with Frozen Multimodal Foundation Model </t>
+          <t xml:space="preserve">Can Language Beat Numerical Regression? Language-Based Multimodal Trajectory Prediction </t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>multimodal</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Song Tang, Wenxin Su, Mao Ye, Xiatian Zhu</t>
+          <t>https://github.com/InhwanBae/LMTrajectory</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>multimodal</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>Inhwan Bae, Junoh Lee, Hae-Gon Jeon</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t xml:space="preserve">MMA-Diffusion: MultiModal Attack on Diffusion Models </t>
+          <t xml:space="preserve">GaussianEditor: Swift and Controllable 3D Editing with Gaussian Splatting </t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>multimodal</t>
-        </is>
-      </c>
-      <c r="C173" t="inlineStr">
-        <is>
-          <t>Yijun Yang, Ruiyuan Gao, Xiaosen Wang, Tsung-Yi Ho, Xu Nan, Qiang Xu</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr"/>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>gaussian splatting</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>Yiwen Chen, Zilong Chen, Chi Zhang, Feng Wang, Xiaofeng Yang, Yikai Wang, Zhongang Cai, Lei Yang, Huaping Liu, Guosheng Lin</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hierarchical Patch Diffusion Models for High-Resolution Video Generation </t>
+          <t xml:space="preserve">Panacea: Panoramic and Controllable Video Generation for Autonomous Driving </t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>video generation</t>
-        </is>
-      </c>
-      <c r="C174" t="inlineStr">
-        <is>
-          <t>Ivan Skorokhodov, Willi Menapace, Aliaksandr Siarohin, Sergey Tulyakov</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr"/>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>video generation,pano</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>Yuqing Wen, Yucheng Zhao, Yingfei Liu, Fan Jia, Yanhui Wang, Chong Luo, Chi Zhang, Tiancai Wang, Xiaoyan Sun, Xiangyu Zhang</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t xml:space="preserve">HUGS: Human Gaussian Splatting </t>
+          <t xml:space="preserve">Multi-Modal Proxy Learning Towards Personalized Visual Multiple Clustering </t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>gaussian splatting</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Muhammed Kocabas, Jen-Hao Rick Chang, James Gabriel, Oncel Tuzel, Anurag Ranjan</t>
+          <t>https://github.com/Alexander-Yao/Multi-MaP</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>personalized</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>Jiawei Yao, Qi Qian, Juhua Hu</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t xml:space="preserve">FreGS: 3D Gaussian Splatting with Progressive Frequency Regularization </t>
+          <t xml:space="preserve">HumanNeRF-SE: A Simple yet Effective Approach to Animate HumanNeRF with Diverse Poses </t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>gaussian splatting</t>
-        </is>
-      </c>
-      <c r="C176" t="inlineStr">
-        <is>
-          <t>Jiahui Zhang, Fangneng Zhan, MUYU XU, Shijian Lu, Eric P. Xing</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr"/>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>nerf</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>Caoyuan Ma, Yu-Lun Liu, Zhixiang Wang, Wu Liu, Xinchen Liu, Zheng Wang</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t xml:space="preserve">Querying as Prompt: Parameter-Efficient Learning for Multimodal Language Model </t>
+          <t xml:space="preserve">Taming Mode Collapse in Score Distillation for Text-to-3D Generation </t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>multimodal</t>
-        </is>
-      </c>
-      <c r="C177" t="inlineStr">
-        <is>
-          <t>Tian Liang, Jing Huang, Ming Kong, Luyuan Chen, Qiang Zhu</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr"/>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>3d generation</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>Peihao Wang, Dejia Xu, Zhiwen Fan, Dilin Wang, Sreyas Mohan, Forrest Iandola, Rakesh Ranjan, Yilei Li, Qiang Liu, Zhangyang Wang, Vikas Chandra</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t xml:space="preserve">PEGASUS: Personalized Generative 3D Avatars with Composable Attributes </t>
+          <t xml:space="preserve">PanoContext-Former: Panoramic Total Scene Understanding with a Transformer </t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>personalized</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Hyunsoo Cha, Byungjun Kim, Hanbyul Joo</t>
+          <t>https://fangchuan.github.io/PanoContext-Former/</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>pano</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>Yuan Dong, Chuan Fang, Liefeng Bo, Zilong Dong, Ping Tan</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t xml:space="preserve">Narrative Action Evaluation with Prompt-Guided Multimodal Interaction </t>
+          <t xml:space="preserve">Tailored Visions: Enhancing Text-to-Image Generation with Personalized Prompt Rewriting </t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>multimodal</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Shiyi Zhang, Sule Bai, Guangyi Chen, Lei Chen, Jiwen Lu, Junle Wang, Yansong Tang</t>
+          <t>https://github.com/zzjchen/Tailored-Visions</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>personalized</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>Zijie Chen, Lichao Zhang, Fangsheng Weng, Lili Pan, ZHENZHONG Lan</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t xml:space="preserve">GenTron: Diffusion Transformers for Image and Video Generation </t>
+          <t xml:space="preserve">Contextual Augmented Global Contrast for Multimodal Intent Recognition </t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>video generation</t>
-        </is>
-      </c>
-      <c r="C180" t="inlineStr">
-        <is>
-          <t>Shoufa Chen, Mengmeng Xu, Jiawei Ren, Yuren Cong, Sen He, Yanping Xie, Animesh Sinha, Ping Luo, Tao Xiang, Juan-Manuel Pérez-Rúa</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr"/>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>multimodal</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>Kaili Sun, Zhiwen Xie, Mang Ye, Huyin Zhang</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t xml:space="preserve">SuGaR: Surface-Aligned Gaussian Splatting for Efficient 3D Mesh Reconstruction and High-Quality Mesh Rendering </t>
+          <t xml:space="preserve">Honeybee: Locality-enhanced Projector for Multimodal LLM </t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>gaussian splatting</t>
-        </is>
-      </c>
-      <c r="C181" t="inlineStr">
-        <is>
-          <t>Antoine Guédon, Vincent Lepetit</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr"/>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>multimodal</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>Junbum Cha, Woo-Young Kang, Jonghwan Mun, Byungseok Roh</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t xml:space="preserve">Towards Effective Usage of Human-Centric Priors in Diffusion Models for Text-based Human Image Generation </t>
+          <t xml:space="preserve">Entity-NeRF: Detecting and Removing Moving Entities in Urban Scenes </t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>human-centric</t>
-        </is>
-      </c>
-      <c r="C182" t="inlineStr">
-        <is>
-          <t>Junyan Wang, Zhenhong Sun, Stewart Tan, Xuanbai Chen, Weihua Chen, li, Cheng Zhang, Yang Song</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr"/>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>nerf</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>Takashi Otonari, Satoshi Ikehata, Kiyoharu Aizawa</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t xml:space="preserve">EvalCrafter: Benchmarking and Evaluating Large Video Generation Models </t>
+          <t xml:space="preserve">GauHuman: Articulated Gaussian Splatting from Monocular Human Videos </t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>video generation</t>
-        </is>
-      </c>
-      <c r="C183" t="inlineStr">
-        <is>
-          <t>Yaofang Liu, Xiaodong Cun, Xuebo Liu, Xintao Wang, Yong Zhang, Haoxin Chen, Yang Liu, Tieyong Zeng, Raymond Chan, Ying Shan</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr"/>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>gaussian splatting</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>Shoukang Hu, Tao Hu, Ziwei Liu</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t xml:space="preserve">ESR-NeRF: Emissive Source Reconstruction Using LDR Multi-view Images </t>
+          <t xml:space="preserve">FlowVid: Taming Imperfect Optical Flows for Consistent Video-to-Video Synthesis </t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>nerf</t>
-        </is>
-      </c>
-      <c r="C184" t="inlineStr">
-        <is>
-          <t>Jinseo Jeong, Junseo Koo, Qimeng Zhang, Gunhee Kim</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr"/>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>video synthesis</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>Feng Liang, Bichen Wu, Jialiang Wang, Licheng Yu, Kunpeng Li, Yinan Zhao, Ishan Misra, Jia-Bin Huang, Peizhao Zhang, Peter Vajda, Diana Marculescu</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t xml:space="preserve">PixelLM: Pixel Reasoning with Large Multimodal Model </t>
+          <t xml:space="preserve">COLMAP-Free 3D Gaussian Splatting </t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>multimodal</t>
-        </is>
-      </c>
-      <c r="C185" t="inlineStr">
-        <is>
-          <t>Zhongwei Ren, Zhicheng Huang, Yunchao Wei, Yao Zhao, Dongmei Fu, Jiashi Feng, Xiaojie Jin</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr"/>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>gaussian splatting</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>Yang Fu, Sifei Liu, Amey Kulkarni, Jan Kautz, Alexei A. Efros, Xiaolong Wang</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t xml:space="preserve">Unlocking the Potential of Prompt-Tuning in Bridging Generalized and Personalized Federated Learning </t>
+          <t xml:space="preserve">Multimodal Pathway: Improve Transformers with Irrelevant Data from Other Modalities </t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>personalized</t>
-        </is>
-      </c>
-      <c r="C186" t="inlineStr">
-        <is>
-          <t>wenlong deng, Christos Thrampoulidis, Xiaoxiao Li</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr"/>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>multimodal</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>Yiyuan Zhang, Xiaohan Ding, Kaixiong Gong, Yixiao Ge, Ying Shan, Xiangyu Yue</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t xml:space="preserve">PaSCo: Urban 3D Panoptic Scene Completion with Uncertainty Awareness </t>
+          <t xml:space="preserve">MVIP-NeRF: Multi-view 3D Inpainting on NeRF Scenes via Diffusion Prior </t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>pano</t>
-        </is>
-      </c>
-      <c r="C187" t="inlineStr">
-        <is>
-          <t>Anh-Quan Cao, Angela Dai, Raoul de Charette</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr"/>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>nerf,inpainting</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>Honghua Chen, Chen Change Loy, Xingang Pan</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t xml:space="preserve">DynVideo-E: Harnessing Dynamic NeRF for Large-Scale Motion- and View-Change Human-Centric Video Editing </t>
+          <t xml:space="preserve">BadCLIP: Dual-Embedding Guided Backdoor Attack on Multimodal Contrastive Learning </t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>nerf,human-centric</t>
-        </is>
-      </c>
-      <c r="C188" t="inlineStr">
-        <is>
-          <t>Jia-Wei Liu, Yan-Pei Cao, Jay Zhangjie Wu, Weijia Mao, Yuchao Gu, Rui Zhao, Jussi Keppo, Ying Shan, Mike Zheng Shou</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr"/>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>multimodal</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>Siyuan Liang, Mingli Zhu, Aishan Liu, Baoyuan Wu, Xiaochun Cao, Ee-Chien Chang</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t xml:space="preserve">NeRF On-the-go: Exploiting Uncertainty for Distractor-free NeRFs in the Wild </t>
+          <t xml:space="preserve">GPS-Gaussian: Generalizable Pixel-wise 3D Gaussian Splatting for Real-time Human Novel View Synthesis </t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>nerf</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Weining Ren, Zihan Zhu, Boyang Sun, Jiaqi Chen, Marc Pollefeys, Songyou Peng</t>
+          <t>https://shunyuanzheng.github.io/GPS-Gaussian</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>gaussian splatting</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>Shunyuan Zheng, Boyao ZHOU, Ruizhi Shao, Boning Liu, Shengping Zhang, Liqiang Nie, Yebin Liu</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t xml:space="preserve">Grid Diffusion Models for Text-to-Video Generation </t>
+          <t xml:space="preserve">NeRFiller: Completing Scenes via Generative 3D Inpainting </t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>video generation</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Taegyeong Lee, Soyeong Kwon, Taehwan Kim</t>
+          <t>https://ethanweber.me/nerfiller/</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>nerf,inpainting</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>Ethan Weber, Aleksander Holynski, Varun Jampani, Saurabh Saxena, Noah Snavely, Abhishek Kar, Angjoo Kanazawa</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t xml:space="preserve">LucidDreamer: Towards High-Fidelity Text-to-3D Generation via Interval Score Matching </t>
+          <t xml:space="preserve">Cloud-Device Collaborative Learning for Multimodal Large Language Models </t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>3d generation</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Yixun Liang, Xin Yang, Jiantao Lin, Haodong LI, Xiaogang Xu, Ying-Cong Chen</t>
+          <t>https://github.com/2644521362/Cdcca/tree/main</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>multimodal</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>Guanqun Wang, Jiaming Liu, Chenxuan Li, Yuan Zhang, Ma Junpeng, Xinyu Wei, Kevin Zhang, Maurice Chong, Renrui Zhang, Yijiang Liu, Shanghang Zhang</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t xml:space="preserve">Exploring the Transferability of Visual Prompting for Multimodal Large Language Models </t>
+          <t xml:space="preserve">MMA-Diffusion: MultiModal Attack on Diffusion Models </t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>multimodal</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>Yichi Zhang, Yinpeng Dong, Siyuan Zhang, Tianzan Min, Hang Su, Jun Zhu</t>
+          <t>https://github.com/cure-lab/MMA-Diffusion</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>multimodal</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>Yijun Yang, Ruiyuan Gao, Xiaosen Wang, Tsung-Yi Ho, Xu Nan, Qiang Xu</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t xml:space="preserve">$L_0$-Sampler: An $L_{0}$ Model Guided Volume Sampling for NeRF </t>
+          <t xml:space="preserve">FreGS: 3D Gaussian Splatting with Progressive Frequency Regularization </t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>nerf</t>
-        </is>
-      </c>
-      <c r="C193" t="inlineStr">
-        <is>
-          <t>Liangchen Li, Juyong Zhang</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr"/>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>gaussian splatting</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>Jiahui Zhang, Fangneng Zhan, MUYU XU, Shijian Lu, Eric P. Xing</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t xml:space="preserve">GS-IR: 3D Gaussian Splatting for Inverse Rendering </t>
+          <t xml:space="preserve">Querying as Prompt: Parameter-Efficient Learning for Multimodal Language Model </t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>gaussian splatting</t>
-        </is>
-      </c>
-      <c r="C194" t="inlineStr">
-        <is>
-          <t>Zhihao Liang, Qi Zhang, Ying Feng, Ying Shan, Kui Jia</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr"/>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>multimodal</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>Tian Liang, Jing Huang, Ming Kong, Luyuan Chen, Qiang Zhu</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t xml:space="preserve">TRINS: Towards Multimodal Language Models That Can Read </t>
+          <t xml:space="preserve">PEGASUS: Personalized Generative 3D Avatars with Composable Attributes </t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>multimodal</t>
-        </is>
-      </c>
-      <c r="C195" t="inlineStr">
-        <is>
-          <t>Ruiyi Zhang, Yanzhe Zhang, Jian Chen, Yufan Zhou, Jiuxiang Gu, Changyou Chen, Tong Sun</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr"/>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>personalized</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>Hyunsoo Cha, Byungjun Kim, Hanbyul Joo</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t xml:space="preserve">Personalized Residuals for Concept-Driven Text-to-Image Generation </t>
+          <t xml:space="preserve">Narrative Action Evaluation with Prompt-Guided Multimodal Interaction </t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>personalized</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>Cusuh Ham, Matthew Fisher, James Hays, Nicholas Kolkin, Yuchen Liu, Richard Zhang, Tobias Hinz</t>
+          <t>https://github.com/shiyi-zh0408/NAE_CVPR2024</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>multimodal</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>Shiyi Zhang, Sule Bai, Guangyi Chen, Lei Chen, Jiwen Lu, Junle Wang, Yansong Tang</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t xml:space="preserve">All in One Framework for Multimodal Re-identification in the Wild </t>
+          <t xml:space="preserve">GenTron: Diffusion Transformers for Image and Video Generation </t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>multimodal</t>
-        </is>
-      </c>
-      <c r="C197" t="inlineStr">
-        <is>
-          <t>He Li, Mang Ye, Ming Zhang, Bo Du</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr"/>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>video generation</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>Shoufa Chen, Mengmeng Xu, Jiawei Ren, Yuren Cong, Sen He, Yanping Xie, Animesh Sinha, Ping Luo, Tao Xiang, Juan-Manuel Pérez-Rúa</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t xml:space="preserve">MMSum: A Dataset for Multimodal Summarization and Thumbnail Generation of Videos </t>
+          <t xml:space="preserve">SuGaR: Surface-Aligned Gaussian Splatting for Efficient 3D Mesh Reconstruction and High-Quality Mesh Rendering </t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>multimodal</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Jielin Qiu, Jiacheng Zhu, William Han, Aditesh Kumar, Karthik Mittal, Claire Jin, Zhengyuan Yang, Linjie Li, Jianfeng Wang, DING ZHAO, Bo Li, Lijuan Wang</t>
+          <t>https://anttwo.github.io/sugar/</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>gaussian splatting</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>Antoine Guédon, Vincent Lepetit</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t xml:space="preserve">LAENeRF: Local Appearance Editing for Neural Radiance Fields </t>
+          <t xml:space="preserve">Towards Effective Usage of Human-Centric Priors in Diffusion Models for Text-based Human Image Generation </t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>nerf</t>
-        </is>
-      </c>
-      <c r="C199" t="inlineStr">
-        <is>
-          <t>Lukas Radl, Michael Steiner, Andreas Kurz, Markus Steinberger</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr"/>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>human-centric</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>Junyan Wang, Zhenhong Sun, Stewart Tan, Xuanbai Chen, Weihua Chen, li, Cheng Zhang, Yang Song</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t xml:space="preserve">Directed Decentralized Collaboration for Personalized Federated Learning </t>
+          <t xml:space="preserve">EvalCrafter: Benchmarking and Evaluating Large Video Generation Models </t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>personalized</t>
-        </is>
-      </c>
-      <c r="C200" t="inlineStr">
-        <is>
-          <t>Yingqi Liu, Yifan Shi, Qinglun Li, Baoyuan Wu, Xueqian Wang, Li Shen</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr"/>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>video generation</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>Yaofang Liu, Xiaodong Cun, Xuebo Liu, Xintao Wang, Yong Zhang, Haoxin Chen, Yang Liu, Tieyong Zeng, Raymond Chan, Ying Shan</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t xml:space="preserve">A Novel Transformer based Network for Large Scale Multimodal and Multitask Learning </t>
+          <t xml:space="preserve">ESR-NeRF: Emissive Source Reconstruction Using LDR Multi-view Images </t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>multimodal</t>
-        </is>
-      </c>
-      <c r="C201" t="inlineStr">
-        <is>
-          <t>Siddharth Srivastava, Gaurav Sharma</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr"/>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>nerf</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>Jinseo Jeong, Junseo Koo, Qimeng Zhang, Gunhee Kim</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t xml:space="preserve">GS-SLAM: Dense Visual SLAM with 3D Gaussian Splatting </t>
+          <t xml:space="preserve">PixelLM: Pixel Reasoning with Large Multimodal Model </t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>gaussian splatting</t>
-        </is>
-      </c>
-      <c r="C202" t="inlineStr">
-        <is>
-          <t>Chi Yan, Delin Qu, Dong Wang, Dan Xu, Zhigang Wang, Bin Zhao, Xuelong Li</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr"/>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>multimodal</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>Zhongwei Ren, Zhicheng Huang, Yunchao Wei, Yao Zhao, Dongmei Fu, Jiashi Feng, Xiaojie Jin</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t xml:space="preserve">Human Gaussian Splatting : Real-time Rendering of Animatable Avatars </t>
+          <t xml:space="preserve">Unlocking the Potential of Prompt-Tuning in Bridging Generalized and Personalized Federated Learning </t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>gaussian splatting</t>
-        </is>
-      </c>
-      <c r="C203" t="inlineStr">
-        <is>
-          <t>Arthur Moreau, Jifei Song, Helisa Dhamo, Richard Shaw, Yiren Zhou, Eduardo Pérez-Pellitero</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr"/>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>personalized</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>wenlong deng, Christos Thrampoulidis, Xiaoxiao Li</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t xml:space="preserve">Multi-Scale 3D Gaussian Splatting for Anti-Aliased Rendering </t>
+          <t xml:space="preserve">PaSCo: Urban 3D Panoptic Scene Completion with Uncertainty Awareness </t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>gaussian splatting</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>Zhiwen Yan, Weng Fei Low, Yu Chen, Gim Hee Lee</t>
+          <t>https://astra-vision.github.io/PaSCo/</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>pano</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>Anh-Quan Cao, Angela Dai, Raoul de Charette</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t xml:space="preserve">Unified-IO 2: Scaling Autoregressive Multimodal Models with Vision, Language, Audio, and Action </t>
+          <t xml:space="preserve">NeRF On-the-go: Exploiting Uncertainty for Distractor-free NeRFs in the Wild </t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>multimodal</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>Jiasen Lu, Christopher Clark, Sangho Lee, Zichen Zhang, Savya Khosla, Ryan Marten, Derek Hoiem, Aniruddha Kembhavi</t>
+          <t>https://rwn17.github.io/nerf-on-the-go</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>nerf</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>Weining Ren, Zihan Zhu, Boyang Sun, Jiaqi Chen, Marc Pollefeys, Songyou Peng</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t xml:space="preserve">SANeRF-HQ: Segment Anything for NeRF in High Quality </t>
+          <t xml:space="preserve">Grid Diffusion Models for Text-to-Video Generation </t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>nerf</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>Yichen Liu, Benran Hu, Chi-Keung Tang, Yu-Wing Tai</t>
+          <t>https://taegyeong-lee.github.io/text2video</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>video generation</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>Taegyeong Lee, Soyeong Kwon, Taehwan Kim</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t xml:space="preserve">MADTP: Multimodal Alignment-Guided Dynamic Token Pruning for Accelerating Vision-Language Transformer </t>
+          <t xml:space="preserve">Exploring the Transferability of Visual Prompting for Multimodal Large Language Models </t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>multimodal</t>
-        </is>
-      </c>
-      <c r="C207" t="inlineStr">
-        <is>
-          <t>Jianjian Cao, Peng Ye, Shengze Li, Chong Yu, Yansong Tang, Jiwen Lu, Tao Chen</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr"/>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>multimodal</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>Yichi Zhang, Yinpeng Dong, Siyuan Zhang, Tianzan Min, Hang Su, Jun Zhu</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t xml:space="preserve">G-NeRF: Geometry-enhanced Novel View Synthesis from Single-View Images </t>
+          <t xml:space="preserve">GS-IR: 3D Gaussian Splatting for Inverse Rendering </t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>nerf</t>
-        </is>
-      </c>
-      <c r="C208" t="inlineStr">
-        <is>
-          <t>Zixiong Huang, Qi Chen, Libo Sun, Yifan Yang, Naizhou Wang, Qi Wu, Mingkui Tan</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr"/>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>gaussian splatting</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>Zhihao Liang, Qi Zhang, Ying Feng, Ying Shan, Kui Jia</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enhancing Multimodal Cooperation via Sample-level Modality Valuation </t>
+          <t xml:space="preserve">Personalized Residuals for Concept-Driven Text-to-Image Generation </t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>multimodal</t>
-        </is>
-      </c>
-      <c r="C209" t="inlineStr">
-        <is>
-          <t>Yake Wei, Ruoxuan Feng, Zihe Wang, Di Hu</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr"/>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>personalized</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>Cusuh Ham, Matthew Fisher, James Hays, Nicholas Kolkin, Yuchen Liu, Richard Zhang, Tobias Hinz</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t xml:space="preserve">ExtraNeRF: Visibility-Aware View Extrapolation of Neural Radiance Fields with Diffusion Models </t>
+          <t xml:space="preserve">All in One Framework for Multimodal Re-identification in the Wild </t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>nerf</t>
-        </is>
-      </c>
-      <c r="C210" t="inlineStr">
-        <is>
-          <t>Meng-Li Shih, Wei-Chiu Ma, Lorenzo Boyice, Aleksander Holynski, Forrester Cole, Brian Curless, Janne Kontkanen</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr"/>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>multimodal</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>He Li, Mang Ye, Ming Zhang, Bo Du</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t xml:space="preserve">StrokeFaceNeRF: Stroke-based Facial Appearance Editing in Neural Radiance Field </t>
+          <t xml:space="preserve">MMSum: A Dataset for Multimodal Summarization and Thumbnail Generation of Videos </t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>nerf</t>
-        </is>
-      </c>
-      <c r="C211" t="inlineStr">
-        <is>
-          <t>Xiao-juan Li, Dingxi Zhang, Shu-Yu Chen, Feng-Lin Liu</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr"/>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>multimodal</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>Jielin Qiu, Jiacheng Zhu, William Han, Aditesh Kumar, Karthik Mittal, Claire Jin, Zhengyuan Yang, Linjie Li, Jianfeng Wang, DING ZHAO, Bo Li, Lijuan Wang</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t xml:space="preserve">ProxyCap: Real-time Monocular Full-body Capture in World Space via Human-Centric Proxy-to-Motion Learning </t>
+          <t xml:space="preserve">Lookahead Exploration with Neural Radiance Representation for Continuous Vision-Language Navigation </t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>human-centric</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>Yuxiang Zhang, Hongwen Zhang, Liangxiao Hu, Jiajun Zhang, Hongwei Yi, Shengping Zhang, Yebin Liu</t>
+          <t>https://github.com/MrZihan/HNR-VLN</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>neural radiance</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>Zihan Wang, Xiangyang Li, Jiahao Yang, Yeqi Liu, Junjie Hu, Ming Jiang, Shuqiang Jiang</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t xml:space="preserve">Brush2Prompt: Contextual Prompt Generator for Object Inpainting </t>
+          <t xml:space="preserve">SOAC: Spatio-Temporal Overlap-Aware Multi-Sensor Calibration using Neural Radiance Fields </t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>inpainting</t>
-        </is>
-      </c>
-      <c r="C213" t="inlineStr">
-        <is>
-          <t>Mang Tik Chiu, Yuqian Zhou, Lingzhi Zhang, Zhe Lin, Connelly Barnes, Sohrab Amirghodsi, Eli Shechtman, Humphrey Shi</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr"/>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>neural radiance</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>Quentin HERAU, Nathan Piasco, Moussab Bennehar, Luis Guiller,o Roldao Jimenez, Dzmitry Tsishkou, MigniotCyrille, Modélisation Information Systèmes, Cedric Demonceaux</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t xml:space="preserve">Feature 3DGS: Supercharging 3D Gaussian Splatting to Enable Distilled Feature Fields </t>
+          <t xml:space="preserve">LAENeRF: Local Appearance Editing for Neural Radiance Fields </t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>gaussian splatting</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>Shijie Zhou, Haoran Chang, Sicheng Jiang, Zhiwen Fan, Zehao Zhu, Dejia Xu, Pradyumna Chari, Suya You, Zhangyang Wang, Achuta Kadambi</t>
+          <t>https://r4dl.github.io/LAENeRF/</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>nerf,neural radiance</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>Lukas Radl, Michael Steiner, Andreas Kurz, Markus Steinberger</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t xml:space="preserve">Multimodal Representation Learning by Alternating Unimodal Adaptation </t>
+          <t xml:space="preserve">GS-SLAM: Dense Visual SLAM with 3D Gaussian Splatting </t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>multimodal</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>Xiaohui Zhang, Jaehong Yoon, Mohit Bansal, Huaxiu Yao</t>
+          <t>https://gs-slam.github.io/</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>gaussian splatting</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>Chi Yan, Delin Qu, Dong Wang, Dan Xu, Zhigang Wang, Bin Zhao, Xuelong Li</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t xml:space="preserve">Modeling Dense Multimodal Interactions Between Biological Pathways and Histology for Survival Prediction </t>
+          <t xml:space="preserve">Multi-Scale 3D Gaussian Splatting for Anti-Aliased Rendering </t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>multimodal</t>
-        </is>
-      </c>
-      <c r="C216" t="inlineStr">
-        <is>
-          <t>Guillaume Jaume, Anurag Vaidya, Richard J. Chen, Drew F. K. Williamson, Paul Pu Liang, Faisal Mahmood</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr"/>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>gaussian splatting</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>Zhiwen Yan, Weng Fei Low, Yu Chen, Gim Hee Lee</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t xml:space="preserve">GenN2N: Generative NeRF2NeRF Translation </t>
+          <t xml:space="preserve">Bayes' Rays: Uncertainty Quantification for Neural Radiance Fields </t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>nerf</t>
-        </is>
-      </c>
-      <c r="C217" t="inlineStr">
-        <is>
-          <t>Xiangyue Liu, Han Xue, Kunming Luo, Ping Tan, Li Yi</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr"/>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>neural radiance</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>Leili Goli, Cody Reading, Silvia Sellán, Alec Jacobson, Andrea Tagliasacchi</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t xml:space="preserve">Gear-NeRF: Free-Viewpoint Rendering and Tracking with Motion-aware Spatio-Temporal Sampling </t>
+          <t xml:space="preserve">Is Vanilla MLP in Neural Radiance Field Enough for Few-shot View Synthesis? </t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>nerf</t>
-        </is>
-      </c>
-      <c r="C218" t="inlineStr">
-        <is>
-          <t>Xinhang Liu, Yu-Wing Tai, Chi-Keung Tang, Pedro Miraldo, Suhas Lohit, Moitreya Chatterjee</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr"/>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>neural radiance</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>Hanxin Zhu, Tianyu He, Xin Li, Bingchen Li, Zhibo Chen</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t xml:space="preserve">SEED-Bench: Benchmarking Multimodal Large Language Models </t>
+          <t xml:space="preserve">SANeRF-HQ: Segment Anything for NeRF in High Quality </t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>multimodal</t>
-        </is>
-      </c>
-      <c r="C219" t="inlineStr">
-        <is>
-          <t>Bohao Li, Yuying Ge, Yixiao Ge, Guangzhi Wang, Rui Wang, Ruimao Zhang, Ying Shan</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr"/>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>nerf</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>Yichen Liu, Benran Hu, Chi-Keung Tang, Yu-Wing Tai</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t xml:space="preserve">DreamControl: Control-Based Text-to-3D Generation with 3D Self-Prior </t>
+          <t xml:space="preserve">MADTP: Multimodal Alignment-Guided Dynamic Token Pruning for Accelerating Vision-Language Transformer </t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>3d generation</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>Tianyu Huang, Yihan Zeng, Zhilu Zhang, Wan Xu, Hang Xu, Songcen Xu, Rynson W.H. Lau, Wangmeng Zuo</t>
+          <t>https://github.com/double125/MADTP</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>multimodal</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>Jianjian Cao, Peng Ye, Shengze Li, Chong Yu, Yansong Tang, Jiwen Lu, Tao Chen</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t xml:space="preserve">InNeRF360: Text-Guided 3D-Consistent Object Inpainting on 360-degree Neural Radiance Fields </t>
+          <t xml:space="preserve">G-NeRF: Geometry-enhanced Novel View Synthesis from Single-View Images </t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>nerf,inpainting</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>Dongqing Wang, Tong Zhang, Alaa Abboud, Sabine Süsstrunk</t>
+          <t>https://llrtt.github.io/G-NeRF-Demo/</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>nerf</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>Zixiong Huang, Qi Chen, Libo Sun, Yifan Yang, Naizhou Wang, Qi Wu, Mingkui Tan</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t xml:space="preserve">Multimodal Sense-Informed Prediction of 3D Human Motions </t>
+          <t xml:space="preserve">Enhancing Multimodal Cooperation via Sample-level Modality Valuation </t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>multimodal</t>
-        </is>
-      </c>
-      <c r="C222" t="inlineStr">
-        <is>
-          <t>Zhenyu Lou, Qiongjie Cui, Haofan Wang, Xu Tang, Hong Zhou</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr"/>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>multimodal</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>Yake Wei, Ruoxuan Feng, Zihe Wang, Di Hu</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t xml:space="preserve">IS-Fusion: Instance-Scene Collaborative Fusion for Multimodal 3D Object Detection </t>
+          <t xml:space="preserve">ExtraNeRF: Visibility-Aware View Extrapolation of Neural Radiance Fields with Diffusion Models </t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>multimodal</t>
-        </is>
-      </c>
-      <c r="C223" t="inlineStr">
-        <is>
-          <t>Junbo Yin, Wenguan Wang, Runnan Chen, Wei Li, Ruigang Yang, Pascal Frossard, Jianbing Shen</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr"/>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>nerf,neural radiance</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>Meng-Li Shih, Wei-Chiu Ma, Lorenzo Boyice, Aleksander Holynski, Forrester Cole, Brian Curless, Janne Kontkanen</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t xml:space="preserve">LAMP: Learn A Motion Pattern for Few-Shot Video Generation </t>
+          <t xml:space="preserve">StrokeFaceNeRF: Stroke-based Facial Appearance Editing in Neural Radiance Field </t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>video generation</t>
-        </is>
-      </c>
-      <c r="C224" t="inlineStr">
-        <is>
-          <t>Rui-Qi Wu, Liangyu Chen, Tong Yang, Chun-Le Guo, Chongyi Li, Xiangyu Zhang</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr"/>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>nerf,neural radiance</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>Xiao-juan Li, Dingxi Zhang, Shu-Yu Chen, Feng-Lin Liu</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t xml:space="preserve">Compositional Chain-of-Thought Prompting for Large Multimodal Models </t>
+          <t xml:space="preserve">ProxyCap: Real-time Monocular Full-body Capture in World Space via Human-Centric Proxy-to-Motion Learning </t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>multimodal</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>Chancharik Mitra, Brandon Huang, Trevor Darrell, Roei Herzig</t>
+          <t>https://zhangyux15.github.io/ProxyCapV2</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>human-centric</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>Yuxiang Zhang, Hongwen Zhang, Liangxiao Hu, Jiajun Zhang, Hongwei Yi, Shengping Zhang, Yebin Liu</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
+          <t xml:space="preserve">Brush2Prompt: Contextual Prompt Generator for Object Inpainting </t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr"/>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>inpainting</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>Mang Tik Chiu, Yuqian Zhou, Lingzhi Zhang, Zhe Lin, Connelly Barnes, Sohrab Amirghodsi, Eli Shechtman, Humphrey Shi</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Feature 3DGS: Supercharging 3D Gaussian Splatting to Enable Distilled Feature Fields </t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>https://feature-3dgs.github.io/</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>gaussian splatting</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>Shijie Zhou, Haoran Chang, Sicheng Jiang, Zhiwen Fan, Zehao Zhu, Dejia Xu, Pradyumna Chari, Suya You, Zhangyang Wang, Achuta Kadambi</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Multimodal Representation Learning by Alternating Unimodal Adaptation </t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr"/>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>multimodal</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>Xiaohui Zhang, Jaehong Yoon, Mohit Bansal, Huaxiu Yao</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Modeling Dense Multimodal Interactions Between Biological Pathways and Histology for Survival Prediction </t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr"/>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>multimodal</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>Guillaume Jaume, Anurag Vaidya, Richard J. Chen, Drew F. K. Williamson, Paul Pu Liang, Faisal Mahmood</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t xml:space="preserve">GenN2N: Generative NeRF2NeRF Translation </t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr"/>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>nerf</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>Xiangyue Liu, Han Xue, Kunming Luo, Ping Tan, Li Yi</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gear-NeRF: Free-Viewpoint Rendering and Tracking with Motion-aware Spatio-Temporal Sampling </t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr"/>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>nerf</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>Xinhang Liu, Yu-Wing Tai, Chi-Keung Tang, Pedro Miraldo, Suhas Lohit, Moitreya Chatterjee</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SEED-Bench: Benchmarking Multimodal Large Language Models </t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr"/>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>multimodal</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>Bohao Li, Yuying Ge, Yixiao Ge, Guangzhi Wang, Rui Wang, Ruimao Zhang, Ying Shan</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DreamControl: Control-Based Text-to-3D Generation with 3D Self-Prior </t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>https://github.com/tyhuang0428/DreamControl</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>3d generation</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>Tianyu Huang, Yihan Zeng, Zhilu Zhang, Wan Xu, Hang Xu, Songcen Xu, Rynson W.H. Lau, Wangmeng Zuo</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t xml:space="preserve">InNeRF360: Text-Guided 3D-Consistent Object Inpainting on 360-degree Neural Radiance Fields </t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr"/>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>nerf,inpainting,neural radiance</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>Dongqing Wang, Tong Zhang, Alaa Abboud, Sabine Süsstrunk</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t xml:space="preserve">IS-Fusion: Instance-Scene Collaborative Fusion for Multimodal 3D Object Detection </t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>https://github.com/yinjunbo/IS-Fusion</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>multimodal</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>Junbo Yin, Wenguan Wang, Runnan Chen, Wei Li, Ruigang Yang, Pascal Frossard, Jianbing Shen</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t xml:space="preserve">LAMP: Learn A Motion Pattern for Few-Shot Video Generation </t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>https://rq-wu.github.io/projects/LAMP/index.html</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>video generation</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>Rui-Qi Wu, Liangyu Chen, Tong Yang, Chun-Le Guo, Chongyi Li, Xiangyu Zhang</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Compositional Chain-of-Thought Prompting for Large Multimodal Models </t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>https://github.com/chancharikmitra/CCoT</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>multimodal</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>Chancharik Mitra, Brandon Huang, Trevor Darrell, Roei Herzig</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
           <t xml:space="preserve">Diffusion Time-step Curriculum for One Image to 3D Generation </t>
         </is>
       </c>
-      <c r="B226" t="inlineStr">
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr"/>
+      <c r="D238" t="inlineStr">
         <is>
           <t>3d generation</t>
         </is>
       </c>
-      <c r="C226" t="inlineStr">
+      <c r="E238" t="inlineStr">
         <is>
           <t>YI Xuanyu, Zike Wu, Qingshan Xu, Pan Zhou, Joo Lim, Hanwang Zhang</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Language-driven Object Fusion into Neural Radiance Fields with Pose-Conditioned Dataset Updates </t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>https://github.com/kcshum/pose-conditioned-NeRF-object-fusion</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>neural radiance</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>Ka Chun SHUM, Jaeyeon Kim, Binh-Son Hua, Thanh Nguyen, Sai-Kit Yeung</t>
         </is>
       </c>
     </row>
